--- a/exports/yield_files/Jay Test 2.xlsx
+++ b/exports/yield_files/Jay Test 2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -80,31 +80,16 @@
     <t xml:space="preserve">Jay Test 2</t>
   </si>
   <si>
-    <t xml:space="preserve">PLY</t>
+    <t xml:space="preserve">CAS</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1575</t>
   </si>
   <si>
-    <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">N18-1579</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
     <t xml:space="preserve">N18-1628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thin</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1615</t>
@@ -119,9 +104,6 @@
     <t xml:space="preserve">N18-1643</t>
   </si>
   <si>
-    <t xml:space="preserve">no plot</t>
-  </si>
-  <si>
     <t xml:space="preserve">N18-1661</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">N18-1586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1577</t>
@@ -152,9 +131,6 @@
     <t xml:space="preserve">Osage</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ellis</t>
   </si>
   <si>
@@ -165,6 +141,33 @@
   </si>
   <si>
     <t xml:space="preserve">N10-687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -581,43 +584,23 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>26</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>70.23</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1656.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16.1</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="3">
@@ -640,40 +623,20 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>28</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="P3" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>69.79</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1872</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3" t="n">
         <v>56.7</v>
@@ -699,28 +662,20 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>2070.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>56.7</v>
@@ -746,29 +701,23 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>1991.6</v>
-      </c>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
-        <v>57.3</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +731,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -791,43 +740,23 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" t="n">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>26</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="P6" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>65.33</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2151.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
       <c r="T6"/>
       <c r="U6" t="n">
-        <v>57.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="7">
@@ -841,7 +770,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -850,43 +779,23 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="n">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="P7" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>64.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2113.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
       <c r="T7"/>
       <c r="U7" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="8">
@@ -900,7 +809,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -909,31 +818,23 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" t="n">
-        <v>1930.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="R8"/>
+      <c r="S8"/>
       <c r="T8"/>
       <c r="U8" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +848,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -956,29 +857,23 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>1932.3</v>
-      </c>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="10">
@@ -992,7 +887,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -1001,43 +896,23 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" t="n">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>38</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="P10" t="n">
-        <v>49.47</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>69.79</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1867.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
       <c r="T10"/>
       <c r="U10" t="n">
-        <v>57.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1051,7 +926,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -1060,45 +935,23 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="n">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>35</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>48.21</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>68.01</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1125.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
       <c r="T11"/>
       <c r="U11" t="n">
-        <v>55.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +965,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -1121,31 +974,23 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" t="n">
-        <v>1343.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="R12"/>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1004,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1168,29 +1013,23 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" t="n">
-        <v>1606.8</v>
-      </c>
+      <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
-        <v>58</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="14">
@@ -1204,7 +1043,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1213,43 +1052,23 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>31</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="P14" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>64.65</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2338.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="n">
-        <v>55.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="15">
@@ -1263,7 +1082,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1272,45 +1091,23 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H15"/>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" t="n">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>30</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="P15" t="n">
-        <v>42.76</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>65.04</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1089</v>
-      </c>
-      <c r="S15" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="n">
-        <v>55.7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="16">
@@ -1324,7 +1121,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1333,31 +1130,23 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" t="n">
-        <v>2303</v>
-      </c>
-      <c r="S16" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="R16"/>
+      <c r="S16"/>
       <c r="T16"/>
       <c r="U16" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="17">
@@ -1371,7 +1160,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1380,25 +1169,19 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" t="n">
-        <v>2188</v>
-      </c>
+      <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
@@ -1416,7 +1199,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1425,43 +1208,23 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>45</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>34</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="P18" t="n">
-        <v>47.87</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>68.13</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2162.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>12</v>
-      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="19">
@@ -1475,7 +1238,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1484,40 +1247,20 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
-        <v>43</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="n">
-        <v>33</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>47.07</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>67.74</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2222.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="n">
         <v>56.1</v>
@@ -1534,7 +1277,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1543,31 +1286,23 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" t="n">
-        <v>1691.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="R20"/>
+      <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="n">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="21">
@@ -1581,7 +1316,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1590,29 +1325,23 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" t="n">
-        <v>2052.6</v>
-      </c>
+      <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
-        <v>55.3</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="22">
@@ -1626,7 +1355,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1635,43 +1364,23 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>30</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="P22" t="n">
-        <v>48.08</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>67.95</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2018.9</v>
-      </c>
-      <c r="S22" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
       <c r="T22"/>
       <c r="U22" t="n">
-        <v>59.6</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="23">
@@ -1685,7 +1394,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1694,43 +1403,23 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="n">
-        <v>43</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>32</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="P23" t="n">
-        <v>45.78</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>66.85</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1732</v>
-      </c>
-      <c r="S23" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
       <c r="T23"/>
       <c r="U23" t="n">
-        <v>59.5</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="24">
@@ -1744,7 +1433,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1753,31 +1442,23 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
+      <c r="K24"/>
+      <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" t="n">
-        <v>1948</v>
-      </c>
-      <c r="S24" t="n">
-        <v>12</v>
-      </c>
+      <c r="R24"/>
+      <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="n">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="25">
@@ -1791,7 +1472,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1800,29 +1481,23 @@
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" t="n">
-        <v>2001</v>
-      </c>
+      <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="n">
-        <v>58.3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -1836,7 +1511,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1845,43 +1520,23 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" t="n">
-        <v>24</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="P26" t="n">
-        <v>45.03</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>66.74</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1350.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="n">
-        <v>55.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="27">
@@ -1895,7 +1550,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1904,43 +1559,23 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H27"/>
-      <c r="I27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" t="n">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="P27" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>65.67</v>
-      </c>
-      <c r="R27" t="n">
-        <v>523.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
       <c r="T27"/>
       <c r="U27" t="n">
-        <v>55.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="28">
@@ -1954,7 +1589,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1963,31 +1598,23 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>25</v>
-      </c>
+      <c r="K28"/>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28" t="n">
-        <v>2116.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="R28"/>
+      <c r="S28"/>
       <c r="T28"/>
       <c r="U28" t="n">
-        <v>58</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="29">
@@ -2001,7 +1628,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2010,29 +1637,23 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
+      <c r="K29"/>
+      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" t="n">
-        <v>1865.4</v>
-      </c>
+      <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
-        <v>56.2</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="30">
@@ -2046,7 +1667,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2055,43 +1676,23 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" t="n">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>30</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="P30" t="n">
-        <v>43.21</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>65.05</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1504.5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="n">
-        <v>56.2</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="31">
@@ -2105,7 +1706,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2114,43 +1715,23 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" t="n">
-        <v>43</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>32</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>21</v>
-      </c>
-      <c r="P31" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>65.4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2175.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
       <c r="T31"/>
       <c r="U31" t="n">
-        <v>58.4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -2164,7 +1745,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2173,31 +1754,23 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" t="n">
-        <v>2316</v>
-      </c>
-      <c r="S32" t="n">
-        <v>12</v>
-      </c>
+      <c r="R32"/>
+      <c r="S32"/>
       <c r="T32"/>
       <c r="U32" t="n">
-        <v>58</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="33">
@@ -2211,7 +1784,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2220,29 +1793,23 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" t="n">
-        <v>1948.1</v>
-      </c>
+      <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="n">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="34">
@@ -2256,7 +1823,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2265,43 +1832,23 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" t="n">
-        <v>42</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="n">
-        <v>27</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="P34" t="n">
-        <v>49.83</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1973.8</v>
-      </c>
-      <c r="S34" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>56.6</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="35">
@@ -2315,7 +1862,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2324,43 +1871,23 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" t="n">
-        <v>43</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" t="n">
-        <v>28</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="P35" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>68.64</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2021.3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
       <c r="T35"/>
       <c r="U35" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
@@ -2374,7 +1901,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2383,31 +1910,23 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
+      <c r="K36"/>
+      <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" t="n">
-        <v>2277.6</v>
-      </c>
-      <c r="S36" t="n">
-        <v>13</v>
-      </c>
+      <c r="R36"/>
+      <c r="S36"/>
       <c r="T36"/>
       <c r="U36" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="37">
@@ -2421,7 +1940,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -2430,29 +1949,23 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" t="n">
-        <v>2039.8</v>
-      </c>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
-        <v>57.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -2466,7 +1979,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -2475,43 +1988,23 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" t="n">
-        <v>44</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" t="n">
-        <v>32</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>43.18</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2109.8</v>
-      </c>
-      <c r="S38" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="n">
-        <v>58</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="39">
@@ -2525,7 +2018,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2534,45 +2027,23 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H39"/>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>30</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="P39" t="n">
-        <v>42.06</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>64.85</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1686.9</v>
-      </c>
-      <c r="S39" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
       <c r="T39"/>
       <c r="U39" t="n">
-        <v>57.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="40">
@@ -2586,7 +2057,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2595,31 +2066,23 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" t="s">
-        <v>25</v>
-      </c>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="n">
-        <v>2186.1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="T40"/>
       <c r="U40" t="n">
-        <v>57.9</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="41">
@@ -2633,7 +2096,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2642,29 +2105,23 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
+      <c r="K41"/>
+      <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" t="n">
-        <v>2288.5</v>
-      </c>
+      <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
-        <v>56.1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
@@ -2678,7 +2135,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2687,40 +2144,20 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" t="n">
-        <v>44</v>
-      </c>
-      <c r="K42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="n">
-        <v>26</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="P42" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>66.71</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1936.1</v>
-      </c>
-      <c r="S42" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="n">
         <v>58</v>
@@ -2737,7 +2174,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2746,43 +2183,23 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>46</v>
-      </c>
-      <c r="K43" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>27</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="P43" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>66.46</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2002.4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="n">
-        <v>57.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="44">
@@ -2796,7 +2213,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2810,26 +2227,18 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" t="s">
-        <v>25</v>
-      </c>
+      <c r="K44"/>
+      <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44" t="n">
-        <v>1928.3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="R44"/>
+      <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="n">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="45">
@@ -2843,7 +2252,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2852,29 +2261,23 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45" t="s">
-        <v>25</v>
-      </c>
+      <c r="K45"/>
+      <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45" t="n">
-        <v>2148.5</v>
-      </c>
+      <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
-        <v>56.8</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="46">
@@ -2888,7 +2291,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2897,43 +2300,23 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" t="n">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" t="n">
-        <v>29</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O46" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="P46" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>68.14</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2179.4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="n">
-        <v>55.9</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="47">
@@ -2947,7 +2330,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2956,43 +2339,23 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" t="n">
-        <v>45</v>
-      </c>
-      <c r="K47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" t="n">
-        <v>29</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P47" t="n">
-        <v>48.09</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>68.69</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1670.7</v>
-      </c>
-      <c r="S47" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="T47"/>
       <c r="U47" t="n">
-        <v>56.1</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="48">
@@ -3006,7 +2369,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -3015,31 +2378,23 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K48"/>
+      <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="n">
-        <v>2190.3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="R48"/>
+      <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="n">
-        <v>57.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="49">
@@ -3053,7 +2408,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -3062,29 +2417,23 @@
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" t="s">
-        <v>25</v>
-      </c>
+      <c r="K49"/>
+      <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" t="n">
-        <v>2026.1</v>
-      </c>
+      <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="50">
@@ -3098,7 +2447,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3107,43 +2456,23 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" t="n">
-        <v>43</v>
-      </c>
-      <c r="K50" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" t="n">
-        <v>36</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="P50" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1755</v>
-      </c>
-      <c r="S50" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="51">
@@ -3157,7 +2486,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -3166,45 +2495,23 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H51"/>
-      <c r="I51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" t="n">
-        <v>42</v>
-      </c>
-      <c r="K51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" t="n">
-        <v>32</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="P51" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2144.1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="52">
@@ -3218,7 +2525,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -3227,31 +2534,23 @@
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" t="s">
-        <v>25</v>
-      </c>
+      <c r="K52"/>
+      <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52" t="n">
-        <v>2203.5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>14</v>
-      </c>
+      <c r="R52"/>
+      <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="n">
-        <v>54.1</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="53">
@@ -3265,7 +2564,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -3274,29 +2573,23 @@
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" t="s">
-        <v>25</v>
-      </c>
+      <c r="K53"/>
+      <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53" t="n">
-        <v>1917.4</v>
-      </c>
+      <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
-        <v>56.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="54">
@@ -3310,7 +2603,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -3323,39 +2616,19 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" t="n">
-        <v>43</v>
-      </c>
-      <c r="K54" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" t="n">
-        <v>32</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="P54" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>67.51</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1833.4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="n">
-        <v>56.6</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="55">
@@ -3369,7 +2642,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -3378,45 +2651,23 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H55"/>
-      <c r="I55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" t="n">
-        <v>46</v>
-      </c>
-      <c r="K55" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" t="n">
-        <v>30</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="P55" t="n">
-        <v>44.88</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>66.79</v>
-      </c>
-      <c r="R55" t="n">
-        <v>763.4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
       <c r="T55"/>
       <c r="U55" t="n">
-        <v>55.7</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="56">
@@ -3430,7 +2681,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -3439,31 +2690,23 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" t="s">
-        <v>25</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" t="n">
-        <v>1873.9</v>
-      </c>
-      <c r="S56" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="R56"/>
+      <c r="S56"/>
       <c r="T56"/>
       <c r="U56" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
@@ -3477,7 +2720,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -3486,25 +2729,19 @@
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" t="s">
-        <v>25</v>
-      </c>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57" t="n">
-        <v>2041.3</v>
-      </c>
+      <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="n">
@@ -3522,7 +2759,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -3531,45 +2768,23 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H58"/>
-      <c r="I58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" t="n">
-        <v>43</v>
-      </c>
-      <c r="K58" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" t="n">
-        <v>25</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="P58" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>68.67</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1981.6</v>
-      </c>
-      <c r="S58" t="n">
-        <v>13</v>
-      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="n">
-        <v>55.6</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="59">
@@ -3583,7 +2798,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -3592,45 +2807,23 @@
         <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59"/>
-      <c r="I59" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>42</v>
-      </c>
-      <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" t="n">
-        <v>24</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="P59" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>67.32</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1635.8</v>
-      </c>
-      <c r="S59" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
       <c r="T59"/>
       <c r="U59" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="60">
@@ -3644,7 +2837,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -3653,31 +2846,23 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="n">
-        <v>1830.2</v>
-      </c>
-      <c r="S60" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="R60"/>
+      <c r="S60"/>
       <c r="T60"/>
       <c r="U60" t="n">
-        <v>57.2</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="61">
@@ -3691,7 +2876,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -3700,29 +2885,23 @@
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" t="s">
-        <v>25</v>
-      </c>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" t="n">
-        <v>1838.8</v>
-      </c>
+      <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="n">
-        <v>57.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="62">
@@ -3736,7 +2915,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -3745,41 +2924,23 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" t="s">
-        <v>46</v>
-      </c>
-      <c r="M62" t="n">
-        <v>28</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="P62" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>66.18</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2206.4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>12</v>
-      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
       <c r="T62"/>
       <c r="U62" t="n">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="63">
@@ -3793,7 +2954,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -3802,41 +2963,23 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H63"/>
-      <c r="I63" t="s">
-        <v>35</v>
-      </c>
+      <c r="I63"/>
       <c r="J63"/>
-      <c r="K63" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" t="s">
-        <v>46</v>
-      </c>
+      <c r="K63"/>
+      <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O63" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="P63" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>66.08</v>
-      </c>
-      <c r="R63" t="n">
-        <v>819</v>
-      </c>
-      <c r="S63" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="64">
@@ -3850,7 +2993,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -3859,28 +3002,20 @@
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" t="s">
-        <v>46</v>
-      </c>
+      <c r="K64"/>
+      <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64" t="n">
-        <v>2196.1</v>
-      </c>
-      <c r="S64" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="R64"/>
+      <c r="S64"/>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>55.7</v>
@@ -3897,7 +3032,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3906,29 +3041,23 @@
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" t="s">
-        <v>46</v>
-      </c>
+      <c r="K65"/>
+      <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="n">
-        <v>2482.4</v>
-      </c>
+      <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="66">
@@ -3942,7 +3071,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3951,43 +3080,23 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" t="n">
-        <v>41</v>
-      </c>
-      <c r="K66" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" t="s">
-        <v>46</v>
-      </c>
-      <c r="M66" t="n">
-        <v>24</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="P66" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2074.5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
       <c r="T66"/>
       <c r="U66" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
@@ -4001,7 +3110,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -4013,42 +3122,20 @@
         <v>38</v>
       </c>
       <c r="H67"/>
-      <c r="I67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" t="n">
-        <v>41</v>
-      </c>
-      <c r="K67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" t="n">
-        <v>24</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="P67" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>63.62</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1541.2</v>
-      </c>
-      <c r="S67" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
       <c r="T67"/>
       <c r="U67" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="68">
@@ -4062,7 +3149,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -4071,31 +3158,23 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" t="s">
-        <v>46</v>
-      </c>
+      <c r="K68"/>
+      <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68" t="n">
-        <v>1661</v>
-      </c>
-      <c r="S68" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="R68"/>
+      <c r="S68"/>
       <c r="T68"/>
       <c r="U68" t="n">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="69">
@@ -4109,7 +3188,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -4118,29 +3197,23 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" t="s">
-        <v>46</v>
-      </c>
+      <c r="K69"/>
+      <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" t="n">
-        <v>2288.3</v>
-      </c>
+      <c r="R69"/>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
-        <v>55.7</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="70">
@@ -4154,7 +3227,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -4163,43 +3236,23 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" t="n">
-        <v>48</v>
-      </c>
-      <c r="K70" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" t="s">
-        <v>46</v>
-      </c>
-      <c r="M70" t="n">
-        <v>26</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="P70" t="n">
-        <v>41.44</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>63.58</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2337.3</v>
-      </c>
-      <c r="S70" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
       <c r="T70"/>
       <c r="U70" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="71">
@@ -4213,52 +3266,32 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" t="n">
-        <v>42</v>
-      </c>
-      <c r="K71" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" t="s">
-        <v>46</v>
-      </c>
-      <c r="M71" t="n">
-        <v>28</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O71" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="P71" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2054.9</v>
-      </c>
-      <c r="S71" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="n">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="72">
@@ -4272,40 +3305,32 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" t="s">
-        <v>46</v>
-      </c>
+      <c r="K72"/>
+      <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" t="n">
-        <v>2258</v>
-      </c>
-      <c r="S72" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="R72"/>
+      <c r="S72"/>
       <c r="T72"/>
       <c r="U72" t="n">
-        <v>55.8</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="73">
@@ -4319,38 +3344,32 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L73" t="s">
-        <v>46</v>
-      </c>
+      <c r="K73"/>
+      <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73" t="n">
-        <v>2314.1</v>
-      </c>
+      <c r="R73"/>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
-        <v>56.3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
@@ -4364,52 +3383,32 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74" t="n">
-        <v>48</v>
-      </c>
-      <c r="K74" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M74" t="n">
-        <v>31</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P74" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>66.95</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2436.4</v>
-      </c>
-      <c r="S74" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
       <c r="T74"/>
       <c r="U74" t="n">
-        <v>56.9</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="75">
@@ -4423,52 +3422,32 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" t="n">
-        <v>50</v>
-      </c>
-      <c r="K75" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" t="s">
-        <v>46</v>
-      </c>
-      <c r="M75" t="n">
-        <v>32</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O75" t="n">
-        <v>21</v>
-      </c>
-      <c r="P75" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>65.07</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1877.2</v>
-      </c>
-      <c r="S75" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
       <c r="T75"/>
       <c r="U75" t="n">
-        <v>56.8</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="76">
@@ -4482,40 +3461,32 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" t="s">
-        <v>46</v>
-      </c>
+      <c r="K76"/>
+      <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76" t="n">
-        <v>2207.2</v>
-      </c>
-      <c r="S76" t="n">
-        <v>14</v>
-      </c>
+      <c r="R76"/>
+      <c r="S76"/>
       <c r="T76"/>
       <c r="U76" t="n">
-        <v>55.3</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="77">
@@ -4529,38 +3500,32 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77" t="s">
-        <v>46</v>
-      </c>
+      <c r="K77"/>
+      <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77" t="n">
-        <v>2107</v>
-      </c>
+      <c r="R77"/>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="78">
@@ -4574,52 +3539,32 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78" t="n">
-        <v>48</v>
-      </c>
-      <c r="K78" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" t="s">
-        <v>25</v>
-      </c>
-      <c r="M78" t="n">
-        <v>32</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="P78" t="n">
-        <v>43.29</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>64.74</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2187.9</v>
-      </c>
-      <c r="S78" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
       <c r="T78"/>
       <c r="U78" t="n">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="79">
@@ -4633,52 +3578,32 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" t="n">
-        <v>50</v>
-      </c>
-      <c r="K79" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M79" t="n">
-        <v>32</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="P79" t="n">
-        <v>42.14</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>63.42</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1727.8</v>
-      </c>
-      <c r="S79" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
       <c r="T79"/>
       <c r="U79" t="n">
-        <v>56.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="80">
@@ -4692,40 +3617,32 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="K80" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" t="s">
-        <v>25</v>
-      </c>
+      <c r="K80"/>
+      <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80" t="n">
-        <v>1763.8</v>
-      </c>
-      <c r="S80" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="R80"/>
+      <c r="S80"/>
       <c r="T80"/>
       <c r="U80" t="n">
-        <v>55.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="81">
@@ -4739,37 +3656,4321 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L81" t="s">
-        <v>25</v>
-      </c>
+      <c r="K81"/>
+      <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" t="n">
-        <v>2024.2</v>
-      </c>
+      <c r="R81"/>
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>42</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>80</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84" t="n">
+        <v>44</v>
+      </c>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" t="n">
+        <v>26</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="P84" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1656.1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T84"/>
+      <c r="U84" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>37</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85" t="n">
+        <v>45</v>
+      </c>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" t="n">
+        <v>28</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="P85" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>69.79</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1872</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>57</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86" t="n">
+        <v>2070.5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T86"/>
+      <c r="U86" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>73</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87" t="n">
+        <v>1991.6</v>
+      </c>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88" t="n">
+        <v>44</v>
+      </c>
+      <c r="K88" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" t="s">
+        <v>45</v>
+      </c>
+      <c r="M88" t="n">
+        <v>26</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O88" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P88" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2151.4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T88"/>
+      <c r="U88" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>23</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89" t="n">
+        <v>43</v>
+      </c>
+      <c r="K89" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+      <c r="M89" t="n">
+        <v>27</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="P89" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2113.7</v>
+      </c>
+      <c r="S89" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T89"/>
+      <c r="U89" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>53</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90" t="s">
+        <v>46</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90" t="n">
+        <v>1930.6</v>
+      </c>
+      <c r="S90" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T90"/>
+      <c r="U90" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>79</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="n">
+        <v>1932.3</v>
+      </c>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>13</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92" t="n">
+        <v>47</v>
+      </c>
+      <c r="K92" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" t="n">
+        <v>38</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O92" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="P92" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>69.79</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1867.4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T92"/>
+      <c r="U92" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>36</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" t="n">
+        <v>47</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" t="n">
+        <v>35</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="P93" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>68.01</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1125.5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T93"/>
+      <c r="U93" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>42</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94" t="s">
+        <v>47</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94" t="n">
+        <v>1343.5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T94"/>
+      <c r="U94" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>63</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95" t="s">
+        <v>47</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95" t="n">
+        <v>1606.8</v>
+      </c>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96" t="n">
+        <v>44</v>
+      </c>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" t="s">
+        <v>45</v>
+      </c>
+      <c r="M96" t="n">
+        <v>31</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="P96" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>64.65</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2338.3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T96"/>
+      <c r="U96" t="n">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>35</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" t="n">
+        <v>45</v>
+      </c>
+      <c r="K97" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="n">
+        <v>30</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O97" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P97" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>65.04</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1089</v>
+      </c>
+      <c r="S97" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T97"/>
+      <c r="U97" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>51</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98" t="s">
+        <v>44</v>
+      </c>
+      <c r="L98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98" t="n">
+        <v>2303</v>
+      </c>
+      <c r="S98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T98"/>
+      <c r="U98" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>66</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99" t="s">
+        <v>44</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99" t="n">
+        <v>2188</v>
+      </c>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100" t="n">
+        <v>45</v>
+      </c>
+      <c r="K100" t="s">
+        <v>44</v>
+      </c>
+      <c r="L100" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100" t="n">
+        <v>34</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="P100" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>68.13</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2162.1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>12</v>
+      </c>
+      <c r="T100"/>
+      <c r="U100" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101" t="n">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L101" t="s">
+        <v>45</v>
+      </c>
+      <c r="M101" t="n">
+        <v>33</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O101" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="P101" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>67.74</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2222.4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="T101"/>
+      <c r="U101" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>43</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L102" t="s">
+        <v>45</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102" t="n">
+        <v>1691.5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T102"/>
+      <c r="U102" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>80</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103" t="s">
+        <v>44</v>
+      </c>
+      <c r="L103" t="s">
+        <v>45</v>
+      </c>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103" t="n">
+        <v>2052.6</v>
+      </c>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103" t="n">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104" t="n">
+        <v>45</v>
+      </c>
+      <c r="K104" t="s">
+        <v>47</v>
+      </c>
+      <c r="L104" t="s">
+        <v>45</v>
+      </c>
+      <c r="M104" t="n">
+        <v>30</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="P104" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2018.9</v>
+      </c>
+      <c r="S104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T104"/>
+      <c r="U104" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>31</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105" t="n">
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105" t="n">
+        <v>32</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P105" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>66.85</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1732</v>
+      </c>
+      <c r="S105" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T105"/>
+      <c r="U105" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>48</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" t="s">
+        <v>45</v>
+      </c>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106" t="n">
+        <v>1948</v>
+      </c>
+      <c r="S106" t="n">
+        <v>12</v>
+      </c>
+      <c r="T106"/>
+      <c r="U106" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>71</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107" t="s">
+        <v>47</v>
+      </c>
+      <c r="L107" t="s">
+        <v>45</v>
+      </c>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107" t="n">
+        <v>2001</v>
+      </c>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108" t="n">
+        <v>46</v>
+      </c>
+      <c r="K108" t="s">
+        <v>44</v>
+      </c>
+      <c r="L108" t="s">
+        <v>45</v>
+      </c>
+      <c r="M108" t="n">
+        <v>24</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="P108" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>66.74</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1350.2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T108"/>
+      <c r="U108" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>26</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109" t="s">
+        <v>49</v>
+      </c>
+      <c r="J109" t="n">
+        <v>46</v>
+      </c>
+      <c r="K109" t="s">
+        <v>44</v>
+      </c>
+      <c r="L109" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P109" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>65.67</v>
+      </c>
+      <c r="R109" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T109"/>
+      <c r="U109" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>56</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" t="s">
+        <v>45</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110" t="n">
+        <v>2116.6</v>
+      </c>
+      <c r="S110" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T110"/>
+      <c r="U110" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111" t="s">
+        <v>45</v>
+      </c>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111" t="n">
+        <v>1865.4</v>
+      </c>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>16</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112" t="n">
+        <v>45</v>
+      </c>
+      <c r="K112" t="s">
+        <v>47</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="n">
+        <v>30</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P112" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1504.5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T112"/>
+      <c r="U112" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>21</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113" t="n">
+        <v>43</v>
+      </c>
+      <c r="K113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113" t="s">
+        <v>45</v>
+      </c>
+      <c r="M113" t="n">
+        <v>32</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>21</v>
+      </c>
+      <c r="P113" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>65.4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2175.5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T113"/>
+      <c r="U113" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>55</v>
+      </c>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114" t="s">
+        <v>47</v>
+      </c>
+      <c r="L114" t="s">
+        <v>45</v>
+      </c>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114" t="n">
+        <v>2316</v>
+      </c>
+      <c r="S114" t="n">
+        <v>12</v>
+      </c>
+      <c r="T114"/>
+      <c r="U114" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>68</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115" t="s">
+        <v>47</v>
+      </c>
+      <c r="L115" t="s">
+        <v>45</v>
+      </c>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115" t="n">
+        <v>1948.1</v>
+      </c>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>19</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116" t="n">
+        <v>42</v>
+      </c>
+      <c r="K116" t="s">
+        <v>47</v>
+      </c>
+      <c r="L116" t="s">
+        <v>45</v>
+      </c>
+      <c r="M116" t="n">
+        <v>27</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="P116" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1973.8</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T116"/>
+      <c r="U116" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>30</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117" t="n">
+        <v>43</v>
+      </c>
+      <c r="K117" t="s">
+        <v>47</v>
+      </c>
+      <c r="L117" t="s">
+        <v>45</v>
+      </c>
+      <c r="M117" t="n">
+        <v>28</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="P117" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2021.3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T117"/>
+      <c r="U117" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118" t="s">
+        <v>47</v>
+      </c>
+      <c r="L118" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118" t="n">
+        <v>2277.6</v>
+      </c>
+      <c r="S118" t="n">
+        <v>13</v>
+      </c>
+      <c r="T118"/>
+      <c r="U118" t="n">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>67</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119" t="s">
+        <v>47</v>
+      </c>
+      <c r="L119" t="s">
+        <v>45</v>
+      </c>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119" t="n">
+        <v>2039.8</v>
+      </c>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120" t="n">
+        <v>44</v>
+      </c>
+      <c r="K120" t="s">
+        <v>47</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="M120" t="n">
+        <v>32</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>65.28</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2109.8</v>
+      </c>
+      <c r="S120" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T120"/>
+      <c r="U120" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>33</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" t="n">
+        <v>43</v>
+      </c>
+      <c r="K121" t="s">
+        <v>47</v>
+      </c>
+      <c r="L121" t="s">
+        <v>45</v>
+      </c>
+      <c r="M121" t="n">
+        <v>30</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="P121" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>64.85</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1686.9</v>
+      </c>
+      <c r="S121" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>44</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" t="s">
+        <v>45</v>
+      </c>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122" t="n">
+        <v>2186.1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T122"/>
+      <c r="U122" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>61</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123" t="s">
+        <v>47</v>
+      </c>
+      <c r="L123" t="s">
+        <v>45</v>
+      </c>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123" t="n">
+        <v>2288.5</v>
+      </c>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124" t="n">
+        <v>44</v>
+      </c>
+      <c r="K124" t="s">
+        <v>50</v>
+      </c>
+      <c r="L124" t="s">
+        <v>45</v>
+      </c>
+      <c r="M124" t="n">
+        <v>26</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="P124" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>66.71</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1936.1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T124"/>
+      <c r="U124" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="n">
+        <v>39</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125" t="n">
+        <v>46</v>
+      </c>
+      <c r="K125" t="s">
+        <v>50</v>
+      </c>
+      <c r="L125" t="s">
+        <v>45</v>
+      </c>
+      <c r="M125" t="n">
+        <v>27</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O125" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="P125" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>66.46</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2002.4</v>
+      </c>
+      <c r="S125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>58</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126" t="s">
+        <v>50</v>
+      </c>
+      <c r="L126" t="s">
+        <v>45</v>
+      </c>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126" t="n">
+        <v>1928.3</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T126"/>
+      <c r="U126" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>75</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127" t="s">
+        <v>50</v>
+      </c>
+      <c r="L127" t="s">
+        <v>45</v>
+      </c>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127" t="n">
+        <v>2148.5</v>
+      </c>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>17</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128" t="n">
+        <v>43</v>
+      </c>
+      <c r="K128" t="s">
+        <v>47</v>
+      </c>
+      <c r="L128" t="s">
+        <v>45</v>
+      </c>
+      <c r="M128" t="n">
+        <v>29</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O128" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="P128" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2179.4</v>
+      </c>
+      <c r="S128" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T128"/>
+      <c r="U128" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129" t="n">
+        <v>45</v>
+      </c>
+      <c r="K129" t="s">
+        <v>47</v>
+      </c>
+      <c r="L129" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129" t="n">
+        <v>29</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O129" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="P129" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1670.7</v>
+      </c>
+      <c r="S129" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T129"/>
+      <c r="U129" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>45</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130" t="s">
+        <v>47</v>
+      </c>
+      <c r="L130" t="s">
+        <v>45</v>
+      </c>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130" t="n">
+        <v>2190.3</v>
+      </c>
+      <c r="S130" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T130"/>
+      <c r="U130" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D131" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>78</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131" t="s">
+        <v>47</v>
+      </c>
+      <c r="L131" t="s">
+        <v>45</v>
+      </c>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131" t="n">
+        <v>2026.1</v>
+      </c>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132" t="n">
+        <v>43</v>
+      </c>
+      <c r="K132" t="s">
+        <v>47</v>
+      </c>
+      <c r="L132" t="s">
+        <v>45</v>
+      </c>
+      <c r="M132" t="n">
+        <v>36</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="P132" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>67.42</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1755</v>
+      </c>
+      <c r="S132" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T132"/>
+      <c r="U132" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>32</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133" t="s">
+        <v>48</v>
+      </c>
+      <c r="J133" t="n">
+        <v>42</v>
+      </c>
+      <c r="K133" t="s">
+        <v>47</v>
+      </c>
+      <c r="L133" t="s">
+        <v>45</v>
+      </c>
+      <c r="M133" t="n">
+        <v>32</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="P133" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2144.1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T133"/>
+      <c r="U133" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>41</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134" t="s">
+        <v>47</v>
+      </c>
+      <c r="L134" t="s">
+        <v>45</v>
+      </c>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134" t="n">
+        <v>2203.5</v>
+      </c>
+      <c r="S134" t="n">
+        <v>14</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4</v>
+      </c>
+      <c r="G135" t="n">
+        <v>77</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135" t="s">
+        <v>47</v>
+      </c>
+      <c r="L135" t="s">
+        <v>45</v>
+      </c>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135" t="n">
+        <v>1917.4</v>
+      </c>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>18</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136" t="n">
+        <v>43</v>
+      </c>
+      <c r="K136" t="s">
+        <v>47</v>
+      </c>
+      <c r="L136" t="s">
+        <v>45</v>
+      </c>
+      <c r="M136" t="n">
+        <v>32</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="P136" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>67.51</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1833.4</v>
+      </c>
+      <c r="S136" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T136"/>
+      <c r="U136" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>34</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" t="n">
+        <v>46</v>
+      </c>
+      <c r="K137" t="s">
+        <v>47</v>
+      </c>
+      <c r="L137" t="s">
+        <v>45</v>
+      </c>
+      <c r="M137" t="n">
+        <v>30</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="P137" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>66.79</v>
+      </c>
+      <c r="R137" t="n">
+        <v>763.4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T137"/>
+      <c r="U137" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3</v>
+      </c>
+      <c r="G138" t="n">
+        <v>59</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138" t="s">
+        <v>47</v>
+      </c>
+      <c r="L138" t="s">
+        <v>45</v>
+      </c>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138" t="n">
+        <v>1873.9</v>
+      </c>
+      <c r="S138" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T138"/>
+      <c r="U138" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D139" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" t="n">
+        <v>72</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139" t="s">
+        <v>47</v>
+      </c>
+      <c r="L139" t="s">
+        <v>45</v>
+      </c>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139" t="n">
+        <v>2041.3</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>14</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" t="n">
+        <v>43</v>
+      </c>
+      <c r="K140" t="s">
+        <v>44</v>
+      </c>
+      <c r="L140" t="s">
+        <v>45</v>
+      </c>
+      <c r="M140" t="n">
+        <v>25</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="P140" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>68.67</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1981.6</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140"/>
+      <c r="U140" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>29</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" t="n">
+        <v>42</v>
+      </c>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" t="s">
+        <v>45</v>
+      </c>
+      <c r="M141" t="n">
+        <v>24</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="P141" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>67.32</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1635.8</v>
+      </c>
+      <c r="S141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T141"/>
+      <c r="U141" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>52</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142" t="s">
+        <v>44</v>
+      </c>
+      <c r="L142" t="s">
+        <v>45</v>
+      </c>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142" t="n">
+        <v>1830.2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T142"/>
+      <c r="U142" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>64</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143" t="s">
+        <v>44</v>
+      </c>
+      <c r="L143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143" t="n">
+        <v>1838.8</v>
+      </c>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144" t="s">
+        <v>47</v>
+      </c>
+      <c r="L144" t="s">
+        <v>51</v>
+      </c>
+      <c r="M144" t="n">
+        <v>28</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="P144" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>66.18</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2206.4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12</v>
+      </c>
+      <c r="T144"/>
+      <c r="U144" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>25</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145" t="s">
+        <v>49</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145" t="s">
+        <v>47</v>
+      </c>
+      <c r="L145" t="s">
+        <v>51</v>
+      </c>
+      <c r="M145"/>
+      <c r="N145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O145" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P145" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="R145" t="n">
+        <v>819</v>
+      </c>
+      <c r="S145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T145"/>
+      <c r="U145" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>46</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146" t="s">
+        <v>47</v>
+      </c>
+      <c r="L146" t="s">
+        <v>51</v>
+      </c>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146" t="n">
+        <v>2196.1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T146"/>
+      <c r="U146" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D147" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>62</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147" t="s">
+        <v>47</v>
+      </c>
+      <c r="L147" t="s">
+        <v>51</v>
+      </c>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147" t="n">
+        <v>2482.4</v>
+      </c>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148" t="n">
+        <v>41</v>
+      </c>
+      <c r="K148" t="s">
+        <v>44</v>
+      </c>
+      <c r="L148" t="s">
+        <v>51</v>
+      </c>
+      <c r="M148" t="n">
+        <v>24</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="P148" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>63.57</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2074.5</v>
+      </c>
+      <c r="S148" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T148"/>
+      <c r="U148" t="n">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>38</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149" t="s">
+        <v>48</v>
+      </c>
+      <c r="J149" t="n">
+        <v>41</v>
+      </c>
+      <c r="K149" t="s">
+        <v>44</v>
+      </c>
+      <c r="L149" t="s">
+        <v>51</v>
+      </c>
+      <c r="M149" t="n">
+        <v>24</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P149" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1541.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" t="n">
+        <v>17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="n">
+        <v>60</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150" t="s">
+        <v>44</v>
+      </c>
+      <c r="L150" t="s">
+        <v>51</v>
+      </c>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150" t="n">
+        <v>1661</v>
+      </c>
+      <c r="S150" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T150"/>
+      <c r="U150" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" t="n">
+        <v>17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>65</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151" t="s">
+        <v>44</v>
+      </c>
+      <c r="L151" t="s">
+        <v>51</v>
+      </c>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151" t="n">
+        <v>2288.3</v>
+      </c>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" t="n">
+        <v>18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>9</v>
+      </c>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152" t="n">
+        <v>48</v>
+      </c>
+      <c r="K152" t="s">
+        <v>47</v>
+      </c>
+      <c r="L152" t="s">
+        <v>51</v>
+      </c>
+      <c r="M152" t="n">
+        <v>26</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="P152" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>63.58</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2337.3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T152"/>
+      <c r="U152" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" t="n">
+        <v>18</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>40</v>
+      </c>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153" t="n">
+        <v>42</v>
+      </c>
+      <c r="K153" t="s">
+        <v>47</v>
+      </c>
+      <c r="L153" t="s">
+        <v>51</v>
+      </c>
+      <c r="M153" t="n">
+        <v>28</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O153" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="P153" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>63.57</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2054.9</v>
+      </c>
+      <c r="S153" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T153"/>
+      <c r="U153" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" t="n">
+        <v>18</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>54</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154" t="s">
+        <v>47</v>
+      </c>
+      <c r="L154" t="s">
+        <v>51</v>
+      </c>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154" t="n">
+        <v>2258</v>
+      </c>
+      <c r="S154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T154"/>
+      <c r="U154" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" t="n">
+        <v>18</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="n">
+        <v>69</v>
+      </c>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155" t="s">
+        <v>47</v>
+      </c>
+      <c r="L155" t="s">
+        <v>51</v>
+      </c>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155" t="n">
+        <v>2314.1</v>
+      </c>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>10</v>
+      </c>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156" t="n">
+        <v>48</v>
+      </c>
+      <c r="K156" t="s">
+        <v>47</v>
+      </c>
+      <c r="L156" t="s">
+        <v>51</v>
+      </c>
+      <c r="M156" t="n">
+        <v>31</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="P156" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2436.4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T156"/>
+      <c r="U156" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="n">
+        <v>19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>28</v>
+      </c>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157" t="n">
+        <v>50</v>
+      </c>
+      <c r="K157" t="s">
+        <v>47</v>
+      </c>
+      <c r="L157" t="s">
+        <v>51</v>
+      </c>
+      <c r="M157" t="n">
+        <v>32</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O157" t="n">
+        <v>21</v>
+      </c>
+      <c r="P157" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>65.07</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1877.2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T157"/>
+      <c r="U157" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" t="n">
+        <v>19</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G158" t="n">
+        <v>47</v>
+      </c>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158" t="s">
+        <v>47</v>
+      </c>
+      <c r="L158" t="s">
+        <v>51</v>
+      </c>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158" t="n">
+        <v>2207.2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>14</v>
+      </c>
+      <c r="T158"/>
+      <c r="U158" t="n">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="n">
+        <v>19</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>70</v>
+      </c>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159" t="s">
+        <v>47</v>
+      </c>
+      <c r="L159" t="s">
+        <v>51</v>
+      </c>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159" t="n">
+        <v>2107</v>
+      </c>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7</v>
+      </c>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160" t="n">
+        <v>48</v>
+      </c>
+      <c r="K160" t="s">
+        <v>47</v>
+      </c>
+      <c r="L160" t="s">
+        <v>45</v>
+      </c>
+      <c r="M160" t="n">
+        <v>32</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="P160" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>64.74</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2187.9</v>
+      </c>
+      <c r="S160" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="T160"/>
+      <c r="U160" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>24</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161" t="n">
+        <v>50</v>
+      </c>
+      <c r="K161" t="s">
+        <v>47</v>
+      </c>
+      <c r="L161" t="s">
+        <v>45</v>
+      </c>
+      <c r="M161" t="n">
+        <v>32</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="P161" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>63.42</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1727.8</v>
+      </c>
+      <c r="S161" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T161"/>
+      <c r="U161" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="n">
+        <v>49</v>
+      </c>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162" t="s">
+        <v>47</v>
+      </c>
+      <c r="L162" t="s">
+        <v>45</v>
+      </c>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162" t="n">
+        <v>1763.8</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="T162"/>
+      <c r="U162" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D163" t="s">
+        <v>42</v>
+      </c>
+      <c r="E163" t="n">
+        <v>20</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4</v>
+      </c>
+      <c r="G163" t="n">
+        <v>74</v>
+      </c>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163" t="s">
+        <v>47</v>
+      </c>
+      <c r="L163" t="s">
+        <v>45</v>
+      </c>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163" t="n">
+        <v>2024.2</v>
+      </c>
+      <c r="S163"/>
+      <c r="T163"/>
+      <c r="U163" t="n">
         <v>56.8</v>
       </c>
     </row>

--- a/exports/yield_files/Jay Test 2.xlsx
+++ b/exports/yield_files/Jay Test 2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,10 +86,19 @@
     <t xml:space="preserve">N18-1575</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18-1579</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1615</t>
@@ -116,6 +125,9 @@
     <t xml:space="preserve">N18-1586</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18-1577</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Osage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">Ellis</t>
@@ -149,9 +164,6 @@
     <t xml:space="preserve">w</t>
   </si>
   <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">s</t>
   </si>
   <si>
@@ -165,9 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -588,17 +597,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>40</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>1650.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>56.7</v>
       </c>
@@ -627,17 +652,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>1343.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
       <c r="U3" t="n">
         <v>56.7</v>
       </c>
@@ -667,15 +708,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>2532.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16.3</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>56.7</v>
@@ -706,14 +757,20 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>2767.4</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
@@ -731,7 +788,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -744,17 +801,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2762.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>55.9</v>
       </c>
@@ -770,7 +843,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -783,17 +856,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>40</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>2697.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>55.6</v>
       </c>
@@ -809,7 +898,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -823,15 +912,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>40</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>2536.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>55.7</v>
@@ -848,7 +947,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -862,14 +961,20 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>2301.3</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
@@ -887,7 +992,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -900,17 +1005,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>917</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
       <c r="U10" t="n">
         <v>58</v>
       </c>
@@ -926,7 +1047,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -939,17 +1060,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>1929.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
       <c r="U11" t="n">
         <v>57.6</v>
       </c>
@@ -965,7 +1102,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -979,15 +1116,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>38</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2054.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>57.7</v>
@@ -1004,7 +1151,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1018,14 +1165,20 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2622.6</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
@@ -1043,7 +1196,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1056,17 +1209,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>36</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>2759.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>57.2</v>
       </c>
@@ -1082,7 +1251,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1095,17 +1264,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>36</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2554</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>57.5</v>
       </c>
@@ -1121,7 +1306,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1135,15 +1320,25 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>2632.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>57.6</v>
@@ -1160,7 +1355,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1174,14 +1369,20 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>2977.2</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
@@ -1199,7 +1400,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1212,17 +1413,33 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" t="n">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>2415.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>55.4</v>
       </c>
@@ -1238,7 +1455,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1251,17 +1468,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>42</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>2428.2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>56.1</v>
       </c>
@@ -1277,7 +1510,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1291,15 +1524,25 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>36</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>2887</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>56.2</v>
@@ -1316,7 +1559,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1330,14 +1573,20 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>2595.5</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
@@ -1355,7 +1604,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1368,17 +1617,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>41</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>2035.8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>58.6</v>
       </c>
@@ -1394,7 +1659,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1407,17 +1672,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>1670.2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>58.6</v>
       </c>
@@ -1433,7 +1714,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1447,15 +1728,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>40</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>2150.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>58.7</v>
@@ -1472,7 +1763,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1486,14 +1777,20 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="n">
+        <v>2543.5</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="n">
@@ -1511,7 +1808,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1524,17 +1821,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>2587</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>57.3</v>
       </c>
@@ -1550,7 +1863,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1563,17 +1876,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>1901.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>57.5</v>
       </c>
@@ -1589,7 +1918,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1603,15 +1932,25 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>44</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>2698.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15.3</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>57.6</v>
@@ -1628,7 +1967,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1642,14 +1981,20 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>2468.5</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
@@ -1667,7 +2012,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1680,17 +2025,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>42</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>1220.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
       <c r="U30" t="n">
         <v>58.4</v>
       </c>
@@ -1706,7 +2067,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1719,17 +2080,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>44</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>2417.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>58</v>
       </c>
@@ -1745,7 +2122,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1759,15 +2136,25 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>42</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>2836.3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>57.9</v>
@@ -1784,7 +2171,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1798,14 +2185,20 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>2899.9</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="n">
@@ -1823,7 +2216,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1836,17 +2229,33 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>34</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
+      <c r="R34" t="n">
+        <v>1428.8</v>
+      </c>
+      <c r="S34" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
         <v>56.9</v>
       </c>
@@ -1862,7 +2271,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1875,17 +2284,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>38</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>2116.7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>56</v>
       </c>
@@ -1901,7 +2326,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1915,15 +2340,25 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>38</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>2742</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>55.9</v>
@@ -1940,7 +2375,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1954,14 +2389,20 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>2909.9</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
@@ -1979,7 +2420,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1992,17 +2433,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>2636.7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U38" t="n">
         <v>56.4</v>
       </c>
@@ -2018,7 +2475,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2031,17 +2488,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>41</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>2258.6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>56.3</v>
       </c>
@@ -2057,7 +2530,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2071,15 +2544,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>40</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>2609.6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15.7</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>56.9</v>
@@ -2096,7 +2579,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2110,14 +2593,20 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>2659.1</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
@@ -2135,7 +2624,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2148,17 +2637,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>38</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>2033.2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U42" t="n">
         <v>58</v>
       </c>
@@ -2174,7 +2679,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2187,17 +2692,33 @@
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" t="n">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>40</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="n">
+        <v>2478.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U43" t="n">
         <v>58.1</v>
       </c>
@@ -2213,7 +2734,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2227,15 +2748,25 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>38</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>2998.6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>58.1</v>
@@ -2252,7 +2783,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2266,14 +2797,20 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>2765.2</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
@@ -2291,7 +2828,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2304,17 +2841,33 @@
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>39</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="n">
+        <v>2379</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U46" t="n">
         <v>57.9</v>
       </c>
@@ -2330,7 +2883,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2343,17 +2896,33 @@
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="J47" t="n">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="n">
+        <v>38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>2362.3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U47" t="n">
         <v>58.1</v>
       </c>
@@ -2369,7 +2938,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2383,15 +2952,25 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>42</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>2605.8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>58.1</v>
@@ -2408,7 +2987,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2422,14 +3001,20 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>2714.8</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
@@ -2447,7 +3032,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -2460,17 +3045,33 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="J50" t="n">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>38</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="n">
+        <v>1935.1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
         <v>55.6</v>
       </c>
@@ -2486,7 +3087,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -2499,17 +3100,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>38</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>1818.2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>55.5</v>
       </c>
@@ -2525,7 +3142,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2539,15 +3156,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>38</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>2689.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>55.6</v>
@@ -2564,7 +3191,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2578,14 +3205,20 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>2579.6</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
@@ -2603,7 +3236,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -2616,17 +3249,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>40</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>1117.6</v>
+      </c>
+      <c r="S54" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.5</v>
+      </c>
       <c r="U54" t="n">
         <v>57.9</v>
       </c>
@@ -2642,7 +3291,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -2655,17 +3304,33 @@
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="J55" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>40</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="n">
+        <v>1277.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U55" t="n">
         <v>57.9</v>
       </c>
@@ -2681,7 +3346,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2695,15 +3360,25 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>42</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>2410.7</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56</v>
@@ -2720,7 +3395,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2734,14 +3409,20 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>1848.8</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="n">
@@ -2759,7 +3440,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -2772,17 +3453,33 @@
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" t="n">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>40</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="n">
+        <v>581.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
       <c r="U58" t="n">
         <v>58.6</v>
       </c>
@@ -2798,7 +3495,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -2811,17 +3508,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>36</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>2070.7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U59" t="n">
         <v>56.4</v>
       </c>
@@ -2837,7 +3550,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2851,15 +3564,25 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>38</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>2502.2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>56.6</v>
@@ -2876,7 +3599,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2890,14 +3613,20 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>2551.8</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="n">
@@ -2915,7 +3644,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2928,17 +3657,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" t="n">
+        <v>34</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>1164.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U62" t="n">
         <v>56.7</v>
       </c>
@@ -2954,7 +3699,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -2967,17 +3712,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" t="n">
+        <v>36</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>2184.7</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U63" t="n">
         <v>55.4</v>
       </c>
@@ -2993,7 +3754,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -3007,15 +3768,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" t="n">
+        <v>36</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>2588</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>55.7</v>
@@ -3032,7 +3803,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3046,14 +3817,20 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="K65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" t="s">
+        <v>43</v>
+      </c>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>2540.9</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="n">
@@ -3071,7 +3848,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3084,17 +3861,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" t="n">
+        <v>36</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>1439.3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U66" t="n">
         <v>55</v>
       </c>
@@ -3110,7 +3903,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3123,17 +3916,33 @@
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="J67" t="n">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" t="n">
+        <v>40</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="n">
+        <v>1829.7</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U67" t="n">
         <v>55.1</v>
       </c>
@@ -3149,7 +3958,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3163,15 +3972,25 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" t="n">
+        <v>36</v>
+      </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="R68" t="n">
+        <v>1134.7</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11.8</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>54.4</v>
@@ -3188,7 +4007,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3202,14 +4021,20 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="K69" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" t="s">
+        <v>43</v>
+      </c>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
+      <c r="R69" t="n">
+        <v>1573.1</v>
+      </c>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
@@ -3227,7 +4052,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -3240,17 +4065,33 @@
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
+      <c r="J70" t="n">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>42</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
+      <c r="R70" t="n">
+        <v>1820.6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U70" t="n">
         <v>55.1</v>
       </c>
@@ -3266,7 +4107,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -3279,17 +4120,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>26</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="n">
+        <v>42</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>1820.6</v>
+      </c>
+      <c r="S71" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U71" t="n">
         <v>55.1</v>
       </c>
@@ -3305,7 +4162,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3318,17 +4175,33 @@
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="J72" t="n">
+        <v>26</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="n">
+        <v>42</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="n">
+        <v>1820.6</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U72" t="n">
         <v>54.7</v>
       </c>
@@ -3344,7 +4217,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3357,17 +4230,33 @@
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
+      <c r="J73" t="n">
+        <v>26</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" t="n">
+        <v>40</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
+      <c r="R73" t="n">
+        <v>1537.4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U73" t="n">
         <v>55</v>
       </c>
@@ -3383,7 +4272,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E74" t="n">
         <v>18</v>
@@ -3397,15 +4286,25 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>43</v>
+      </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
+      <c r="R74" t="n">
+        <v>2805</v>
+      </c>
+      <c r="S74" t="n">
+        <v>16.1</v>
+      </c>
       <c r="T74"/>
       <c r="U74" t="n">
         <v>54.7</v>
@@ -3422,7 +4321,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E75" t="n">
         <v>18</v>
@@ -3436,14 +4335,20 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
+      <c r="R75" t="n">
+        <v>2751.8</v>
+      </c>
       <c r="S75"/>
       <c r="T75"/>
       <c r="U75" t="n">
@@ -3461,7 +4366,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3474,17 +4379,33 @@
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
+      <c r="J76" t="n">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="n">
+        <v>42</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
+      <c r="R76" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U76" t="n">
         <v>56.6</v>
       </c>
@@ -3500,7 +4421,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3513,17 +4434,33 @@
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="J77" t="n">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="n">
+        <v>39</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
+      <c r="R77" t="n">
+        <v>2356.4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U77" t="n">
         <v>56.5</v>
       </c>
@@ -3539,7 +4476,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -3553,15 +4490,25 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="n">
+        <v>40</v>
+      </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
+      <c r="R78" t="n">
+        <v>2489.7</v>
+      </c>
+      <c r="S78" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T78"/>
       <c r="U78" t="n">
         <v>56.6</v>
@@ -3578,7 +4525,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E79" t="n">
         <v>19</v>
@@ -3592,14 +4539,20 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
+      <c r="K79" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
+      <c r="R79" t="n">
+        <v>2415.3</v>
+      </c>
       <c r="S79"/>
       <c r="T79"/>
       <c r="U79" t="n">
@@ -3617,7 +4570,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3630,17 +4583,33 @@
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
+      <c r="J80" t="n">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>43</v>
+      </c>
+      <c r="M80" t="n">
+        <v>38</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
+      <c r="R80" t="n">
+        <v>2303.5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U80" t="n">
         <v>56.6</v>
       </c>
@@ -3656,7 +4625,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3669,17 +4638,33 @@
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
+      <c r="J81" t="n">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" t="n">
+        <v>40</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
+      <c r="R81" t="n">
+        <v>2209.9</v>
+      </c>
+      <c r="S81" t="n">
+        <v>11</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U81" t="n">
         <v>56.8</v>
       </c>
@@ -3695,7 +4680,7 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E82" t="n">
         <v>20</v>
@@ -3709,15 +4694,25 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" t="s">
+        <v>43</v>
+      </c>
+      <c r="M82" t="n">
+        <v>44</v>
+      </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
+      <c r="R82" t="n">
+        <v>2405.6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11.7</v>
+      </c>
       <c r="T82"/>
       <c r="U82" t="n">
         <v>57.5</v>
@@ -3734,7 +4729,7 @@
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E83" t="n">
         <v>20</v>
@@ -3748,14 +4743,20 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="K83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" t="s">
+        <v>43</v>
+      </c>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83"/>
+      <c r="R83" t="n">
+        <v>2463.2</v>
+      </c>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83" t="n">
@@ -3767,7 +4768,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -3787,13 +4788,13 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L84" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M84" t="n">
         <v>26</v>
@@ -3816,7 +4817,9 @@
       <c r="S84" t="n">
         <v>16.1</v>
       </c>
-      <c r="T84"/>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
       <c r="U84" t="n">
         <v>56.3</v>
       </c>
@@ -3826,7 +4829,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
@@ -3846,13 +4849,13 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L85" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M85" t="n">
         <v>28</v>
@@ -3875,7 +4878,9 @@
       <c r="S85" t="n">
         <v>14.2</v>
       </c>
-      <c r="T85"/>
+      <c r="T85" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U85" t="n">
         <v>56.7</v>
       </c>
@@ -3885,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
@@ -3906,10 +4911,10 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L86" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -3932,7 +4937,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
@@ -3953,10 +4958,10 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L87" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M87"/>
       <c r="N87"/>
@@ -3977,13 +4982,13 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -3997,13 +5002,13 @@
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L88" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M88" t="n">
         <v>26</v>
@@ -4026,7 +5031,9 @@
       <c r="S88" t="n">
         <v>13.2</v>
       </c>
-      <c r="T88"/>
+      <c r="T88" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U88" t="n">
         <v>57.3</v>
       </c>
@@ -4036,13 +5043,13 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -4056,13 +5063,13 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K89" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L89" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M89" t="n">
         <v>27</v>
@@ -4085,7 +5092,9 @@
       <c r="S89" t="n">
         <v>12.3</v>
       </c>
-      <c r="T89"/>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U89" t="n">
         <v>56.3</v>
       </c>
@@ -4095,13 +5104,13 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -4116,10 +5125,10 @@
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M90"/>
       <c r="N90"/>
@@ -4142,13 +5151,13 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -4163,10 +5172,10 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L91" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M91"/>
       <c r="N91"/>
@@ -4187,13 +5196,13 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -4207,13 +5216,13 @@
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L92" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M92" t="n">
         <v>38</v>
@@ -4236,7 +5245,9 @@
       <c r="S92" t="n">
         <v>12.4</v>
       </c>
-      <c r="T92"/>
+      <c r="T92" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U92" t="n">
         <v>57.2</v>
       </c>
@@ -4246,13 +5257,13 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" t="n">
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -4265,16 +5276,16 @@
       </c>
       <c r="H93"/>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J93" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L93" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M93" t="n">
         <v>35</v>
@@ -4297,7 +5308,9 @@
       <c r="S93" t="n">
         <v>12.6</v>
       </c>
-      <c r="T93"/>
+      <c r="T93" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U93" t="n">
         <v>55.6</v>
       </c>
@@ -4307,13 +5320,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -4328,10 +5341,10 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M94"/>
       <c r="N94"/>
@@ -4354,13 +5367,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C95" t="n">
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -4375,10 +5388,10 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L95" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M95"/>
       <c r="N95"/>
@@ -4399,13 +5412,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -4419,13 +5432,13 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L96" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M96" t="n">
         <v>31</v>
@@ -4448,7 +5461,9 @@
       <c r="S96" t="n">
         <v>13.6</v>
       </c>
-      <c r="T96"/>
+      <c r="T96" t="n">
+        <v>1</v>
+      </c>
       <c r="U96" t="n">
         <v>55.1</v>
       </c>
@@ -4458,13 +5473,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -4477,16 +5492,16 @@
       </c>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J97" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L97" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M97" t="n">
         <v>30</v>
@@ -4509,7 +5524,9 @@
       <c r="S97" t="n">
         <v>12.9</v>
       </c>
-      <c r="T97"/>
+      <c r="T97" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U97" t="n">
         <v>55.7</v>
       </c>
@@ -4519,13 +5536,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -4540,10 +5557,10 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
@@ -4566,13 +5583,13 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -4587,10 +5604,10 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L99" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M99"/>
       <c r="N99"/>
@@ -4611,13 +5628,13 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -4631,13 +5648,13 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K100" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L100" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M100" t="n">
         <v>34</v>
@@ -4660,7 +5677,9 @@
       <c r="S100" t="n">
         <v>12</v>
       </c>
-      <c r="T100"/>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
       <c r="U100" t="n">
         <v>56.2</v>
       </c>
@@ -4670,13 +5689,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -4690,13 +5709,13 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K101" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L101" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M101" t="n">
         <v>33</v>
@@ -4719,7 +5738,9 @@
       <c r="S101" t="n">
         <v>11.3</v>
       </c>
-      <c r="T101"/>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
       <c r="U101" t="n">
         <v>56.1</v>
       </c>
@@ -4729,13 +5750,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -4750,10 +5771,10 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L102" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M102"/>
       <c r="N102"/>
@@ -4776,13 +5797,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -4797,10 +5818,10 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L103" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M103"/>
       <c r="N103"/>
@@ -4821,13 +5842,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -4841,13 +5862,13 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L104" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M104" t="n">
         <v>30</v>
@@ -4870,7 +5891,9 @@
       <c r="S104" t="n">
         <v>11.9</v>
       </c>
-      <c r="T104"/>
+      <c r="T104" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U104" t="n">
         <v>59.6</v>
       </c>
@@ -4880,13 +5903,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -4900,13 +5923,13 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L105" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M105" t="n">
         <v>32</v>
@@ -4929,7 +5952,9 @@
       <c r="S105" t="n">
         <v>11.2</v>
       </c>
-      <c r="T105"/>
+      <c r="T105" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U105" t="n">
         <v>59.5</v>
       </c>
@@ -4939,13 +5964,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -4960,10 +5985,10 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L106" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M106"/>
       <c r="N106"/>
@@ -4986,13 +6011,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -5007,10 +6032,10 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L107" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M107"/>
       <c r="N107"/>
@@ -5031,13 +6056,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -5051,13 +6076,13 @@
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K108" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L108" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M108" t="n">
         <v>24</v>
@@ -5080,7 +6105,9 @@
       <c r="S108" t="n">
         <v>13.2</v>
       </c>
-      <c r="T108"/>
+      <c r="T108" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U108" t="n">
         <v>55.7</v>
       </c>
@@ -5090,13 +6117,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -5109,16 +6136,16 @@
       </c>
       <c r="H109"/>
       <c r="I109" t="s">
+        <v>53</v>
+      </c>
+      <c r="J109" t="n">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
         <v>49</v>
       </c>
-      <c r="J109" t="n">
-        <v>46</v>
-      </c>
-      <c r="K109" t="s">
-        <v>44</v>
-      </c>
       <c r="L109" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M109"/>
       <c r="N109" t="n">
@@ -5149,13 +6176,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -5170,10 +6197,10 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L110" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M110"/>
       <c r="N110"/>
@@ -5196,13 +6223,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -5217,10 +6244,10 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L111" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M111"/>
       <c r="N111"/>
@@ -5241,13 +6268,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -5261,13 +6288,13 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K112" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L112" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M112" t="n">
         <v>30</v>
@@ -5290,7 +6317,9 @@
       <c r="S112" t="n">
         <v>11.9</v>
       </c>
-      <c r="T112"/>
+      <c r="T112" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U112" t="n">
         <v>56.2</v>
       </c>
@@ -5300,13 +6329,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -5320,13 +6349,13 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K113" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L113" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M113" t="n">
         <v>32</v>
@@ -5349,7 +6378,9 @@
       <c r="S113" t="n">
         <v>11.9</v>
       </c>
-      <c r="T113"/>
+      <c r="T113" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U113" t="n">
         <v>58.4</v>
       </c>
@@ -5359,13 +6390,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -5380,10 +6411,10 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L114" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M114"/>
       <c r="N114"/>
@@ -5406,13 +6437,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -5427,10 +6458,10 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L115" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M115"/>
       <c r="N115"/>
@@ -5451,13 +6482,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -5471,13 +6502,13 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L116" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M116" t="n">
         <v>27</v>
@@ -5500,7 +6531,9 @@
       <c r="S116" t="n">
         <v>12.1</v>
       </c>
-      <c r="T116"/>
+      <c r="T116" t="n">
+        <v>1</v>
+      </c>
       <c r="U116" t="n">
         <v>56.6</v>
       </c>
@@ -5510,13 +6543,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -5530,13 +6563,13 @@
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K117" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L117" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M117" t="n">
         <v>28</v>
@@ -5559,7 +6592,9 @@
       <c r="S117" t="n">
         <v>13.9</v>
       </c>
-      <c r="T117"/>
+      <c r="T117" t="n">
+        <v>1</v>
+      </c>
       <c r="U117" t="n">
         <v>55.5</v>
       </c>
@@ -5569,13 +6604,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -5590,10 +6625,10 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L118" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M118"/>
       <c r="N118"/>
@@ -5616,13 +6651,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -5637,10 +6672,10 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L119" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M119"/>
       <c r="N119"/>
@@ -5661,13 +6696,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -5681,13 +6716,13 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L120" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M120" t="n">
         <v>32</v>
@@ -5710,7 +6745,9 @@
       <c r="S120" t="n">
         <v>13.5</v>
       </c>
-      <c r="T120"/>
+      <c r="T120" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U120" t="n">
         <v>58</v>
       </c>
@@ -5720,13 +6757,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -5739,16 +6776,16 @@
       </c>
       <c r="H121"/>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J121" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K121" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M121" t="n">
         <v>30</v>
@@ -5771,7 +6808,9 @@
       <c r="S121" t="n">
         <v>13.4</v>
       </c>
-      <c r="T121"/>
+      <c r="T121" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U121" t="n">
         <v>57.8</v>
       </c>
@@ -5781,13 +6820,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -5802,10 +6841,10 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L122" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M122"/>
       <c r="N122"/>
@@ -5828,13 +6867,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -5849,10 +6888,10 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L123" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M123"/>
       <c r="N123"/>
@@ -5873,13 +6912,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E124" t="n">
         <v>11</v>
@@ -5893,13 +6932,13 @@
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L124" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M124" t="n">
         <v>26</v>
@@ -5922,7 +6961,9 @@
       <c r="S124" t="n">
         <v>11.5</v>
       </c>
-      <c r="T124"/>
+      <c r="T124" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U124" t="n">
         <v>58</v>
       </c>
@@ -5932,13 +6973,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -5952,13 +6993,13 @@
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K125" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L125" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M125" t="n">
         <v>27</v>
@@ -5981,7 +7022,9 @@
       <c r="S125" t="n">
         <v>11.9</v>
       </c>
-      <c r="T125"/>
+      <c r="T125" t="n">
+        <v>1</v>
+      </c>
       <c r="U125" t="n">
         <v>57.6</v>
       </c>
@@ -5991,13 +7034,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E126" t="n">
         <v>11</v>
@@ -6012,10 +7055,10 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L126" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M126"/>
       <c r="N126"/>
@@ -6038,13 +7081,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E127" t="n">
         <v>11</v>
@@ -6059,10 +7102,10 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L127" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M127"/>
       <c r="N127"/>
@@ -6083,13 +7126,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E128" t="n">
         <v>12</v>
@@ -6103,13 +7146,13 @@
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K128" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L128" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M128" t="n">
         <v>29</v>
@@ -6132,7 +7175,9 @@
       <c r="S128" t="n">
         <v>13.7</v>
       </c>
-      <c r="T128"/>
+      <c r="T128" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U128" t="n">
         <v>55.9</v>
       </c>
@@ -6142,13 +7187,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -6162,13 +7207,13 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K129" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L129" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M129" t="n">
         <v>29</v>
@@ -6191,7 +7236,9 @@
       <c r="S129" t="n">
         <v>13.7</v>
       </c>
-      <c r="T129"/>
+      <c r="T129" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U129" t="n">
         <v>56.1</v>
       </c>
@@ -6201,13 +7248,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E130" t="n">
         <v>12</v>
@@ -6222,10 +7269,10 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L130" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M130"/>
       <c r="N130"/>
@@ -6248,13 +7295,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E131" t="n">
         <v>12</v>
@@ -6269,10 +7316,10 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L131" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M131"/>
       <c r="N131"/>
@@ -6293,13 +7340,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -6313,13 +7360,13 @@
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M132" t="n">
         <v>36</v>
@@ -6342,7 +7389,9 @@
       <c r="S132" t="n">
         <v>14.8</v>
       </c>
-      <c r="T132"/>
+      <c r="T132" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U132" t="n">
         <v>55</v>
       </c>
@@ -6352,13 +7401,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -6371,16 +7420,16 @@
       </c>
       <c r="H133"/>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J133" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K133" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L133" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M133" t="n">
         <v>32</v>
@@ -6403,7 +7452,9 @@
       <c r="S133" t="n">
         <v>13.3</v>
       </c>
-      <c r="T133"/>
+      <c r="T133" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U133" t="n">
         <v>55.2</v>
       </c>
@@ -6413,13 +7464,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -6434,10 +7485,10 @@
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L134" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M134"/>
       <c r="N134"/>
@@ -6460,13 +7511,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -6481,10 +7532,10 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L135" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M135"/>
       <c r="N135"/>
@@ -6505,13 +7556,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E136" t="n">
         <v>14</v>
@@ -6525,13 +7576,13 @@
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L136" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M136" t="n">
         <v>32</v>
@@ -6554,7 +7605,9 @@
       <c r="S136" t="n">
         <v>13.1</v>
       </c>
-      <c r="T136"/>
+      <c r="T136" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U136" t="n">
         <v>56.6</v>
       </c>
@@ -6564,13 +7617,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E137" t="n">
         <v>14</v>
@@ -6583,16 +7636,16 @@
       </c>
       <c r="H137"/>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J137" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K137" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L137" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M137" t="n">
         <v>30</v>
@@ -6615,7 +7668,9 @@
       <c r="S137" t="n">
         <v>13.5</v>
       </c>
-      <c r="T137"/>
+      <c r="T137" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U137" t="n">
         <v>55.7</v>
       </c>
@@ -6625,13 +7680,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E138" t="n">
         <v>14</v>
@@ -6646,10 +7701,10 @@
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L138" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M138"/>
       <c r="N138"/>
@@ -6672,13 +7727,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E139" t="n">
         <v>14</v>
@@ -6693,10 +7748,10 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L139" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M139"/>
       <c r="N139"/>
@@ -6717,13 +7772,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E140" t="n">
         <v>15</v>
@@ -6736,16 +7791,16 @@
       </c>
       <c r="H140"/>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J140" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L140" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M140" t="n">
         <v>25</v>
@@ -6768,7 +7823,9 @@
       <c r="S140" t="n">
         <v>13</v>
       </c>
-      <c r="T140"/>
+      <c r="T140" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U140" t="n">
         <v>55.6</v>
       </c>
@@ -6778,13 +7835,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E141" t="n">
         <v>15</v>
@@ -6797,16 +7854,16 @@
       </c>
       <c r="H141"/>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J141" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L141" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M141" t="n">
         <v>24</v>
@@ -6829,7 +7886,9 @@
       <c r="S141" t="n">
         <v>12.2</v>
       </c>
-      <c r="T141"/>
+      <c r="T141" t="n">
+        <v>2</v>
+      </c>
       <c r="U141" t="n">
         <v>56</v>
       </c>
@@ -6839,13 +7898,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E142" t="n">
         <v>15</v>
@@ -6860,10 +7919,10 @@
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L142" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M142"/>
       <c r="N142"/>
@@ -6886,13 +7945,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E143" t="n">
         <v>15</v>
@@ -6907,10 +7966,10 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L143" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M143"/>
       <c r="N143"/>
@@ -6931,13 +7990,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -6950,12 +8009,14 @@
       </c>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144"/>
+      <c r="J144" t="n">
+        <v>4</v>
+      </c>
       <c r="K144" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L144" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M144" t="n">
         <v>28</v>
@@ -6978,7 +8039,9 @@
       <c r="S144" t="n">
         <v>12</v>
       </c>
-      <c r="T144"/>
+      <c r="T144" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U144" t="n">
         <v>56.8</v>
       </c>
@@ -6988,13 +8051,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -7007,14 +8070,16 @@
       </c>
       <c r="H145"/>
       <c r="I145" t="s">
-        <v>49</v>
-      </c>
-      <c r="J145"/>
+        <v>53</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5</v>
+      </c>
       <c r="K145" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L145" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M145"/>
       <c r="N145" t="n">
@@ -7045,13 +8110,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -7066,10 +8131,10 @@
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L146" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M146"/>
       <c r="N146"/>
@@ -7092,13 +8157,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -7113,10 +8178,10 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L147" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M147"/>
       <c r="N147"/>
@@ -7137,13 +8202,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E148" t="n">
         <v>17</v>
@@ -7157,13 +8222,13 @@
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K148" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L148" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M148" t="n">
         <v>24</v>
@@ -7186,7 +8251,9 @@
       <c r="S148" t="n">
         <v>11.8</v>
       </c>
-      <c r="T148"/>
+      <c r="T148" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U148" t="n">
         <v>54.8</v>
       </c>
@@ -7196,13 +8263,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E149" t="n">
         <v>17</v>
@@ -7215,16 +8282,16 @@
       </c>
       <c r="H149"/>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J149" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K149" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L149" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M149" t="n">
         <v>24</v>
@@ -7247,7 +8314,9 @@
       <c r="S149" t="n">
         <v>11.6</v>
       </c>
-      <c r="T149"/>
+      <c r="T149" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U149" t="n">
         <v>54.6</v>
       </c>
@@ -7257,13 +8326,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E150" t="n">
         <v>17</v>
@@ -7278,10 +8347,10 @@
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L150" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M150"/>
       <c r="N150"/>
@@ -7304,13 +8373,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E151" t="n">
         <v>17</v>
@@ -7325,10 +8394,10 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L151" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M151"/>
       <c r="N151"/>
@@ -7349,13 +8418,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
         <v>18</v>
@@ -7369,13 +8438,13 @@
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L152" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M152" t="n">
         <v>26</v>
@@ -7398,7 +8467,9 @@
       <c r="S152" t="n">
         <v>13.5</v>
       </c>
-      <c r="T152"/>
+      <c r="T152" t="n">
+        <v>1</v>
+      </c>
       <c r="U152" t="n">
         <v>55.9</v>
       </c>
@@ -7408,13 +8479,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
@@ -7428,13 +8499,13 @@
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K153" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L153" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M153" t="n">
         <v>28</v>
@@ -7457,7 +8528,9 @@
       <c r="S153" t="n">
         <v>12.5</v>
       </c>
-      <c r="T153"/>
+      <c r="T153" t="n">
+        <v>1</v>
+      </c>
       <c r="U153" t="n">
         <v>56.2</v>
       </c>
@@ -7467,13 +8540,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E154" t="n">
         <v>18</v>
@@ -7488,10 +8561,10 @@
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L154" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M154"/>
       <c r="N154"/>
@@ -7514,13 +8587,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E155" t="n">
         <v>18</v>
@@ -7535,10 +8608,10 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L155" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M155"/>
       <c r="N155"/>
@@ -7559,13 +8632,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E156" t="n">
         <v>19</v>
@@ -7579,13 +8652,13 @@
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L156" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M156" t="n">
         <v>31</v>
@@ -7608,7 +8681,9 @@
       <c r="S156" t="n">
         <v>14.3</v>
       </c>
-      <c r="T156"/>
+      <c r="T156" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U156" t="n">
         <v>56.9</v>
       </c>
@@ -7618,13 +8693,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E157" t="n">
         <v>19</v>
@@ -7638,13 +8713,13 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K157" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L157" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M157" t="n">
         <v>32</v>
@@ -7667,7 +8742,9 @@
       <c r="S157" t="n">
         <v>14.5</v>
       </c>
-      <c r="T157"/>
+      <c r="T157" t="n">
+        <v>1</v>
+      </c>
       <c r="U157" t="n">
         <v>56.8</v>
       </c>
@@ -7677,13 +8754,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E158" t="n">
         <v>19</v>
@@ -7698,10 +8775,10 @@
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L158" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M158"/>
       <c r="N158"/>
@@ -7724,13 +8801,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E159" t="n">
         <v>19</v>
@@ -7745,10 +8822,10 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L159" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M159"/>
       <c r="N159"/>
@@ -7769,13 +8846,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E160" t="n">
         <v>20</v>
@@ -7789,13 +8866,13 @@
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K160" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L160" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M160" t="n">
         <v>32</v>
@@ -7818,7 +8895,9 @@
       <c r="S160" t="n">
         <v>10.1</v>
       </c>
-      <c r="T160"/>
+      <c r="T160" t="n">
+        <v>1</v>
+      </c>
       <c r="U160" t="n">
         <v>55.2</v>
       </c>
@@ -7828,13 +8907,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E161" t="n">
         <v>20</v>
@@ -7848,13 +8927,13 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K161" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L161" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M161" t="n">
         <v>32</v>
@@ -7877,7 +8956,9 @@
       <c r="S161" t="n">
         <v>11.4</v>
       </c>
-      <c r="T161"/>
+      <c r="T161" t="n">
+        <v>1</v>
+      </c>
       <c r="U161" t="n">
         <v>56.7</v>
       </c>
@@ -7887,13 +8968,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E162" t="n">
         <v>20</v>
@@ -7908,10 +8989,10 @@
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L162" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M162"/>
       <c r="N162"/>
@@ -7934,13 +9015,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C163" t="n">
         <v>2021</v>
       </c>
       <c r="D163" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E163" t="n">
         <v>20</v>
@@ -7955,10 +9036,10 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L163" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M163"/>
       <c r="N163"/>

--- a/exports/yield_files/Jay Test 2.xlsx
+++ b/exports/yield_files/Jay Test 2.xlsx
@@ -612,9 +612,15 @@
       <c r="N2" t="n">
         <v>2.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="P2" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>69.07</v>
+      </c>
       <c r="R2" t="n">
         <v>1650.7</v>
       </c>
@@ -667,9 +673,15 @@
       <c r="N3" t="n">
         <v>2</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67.44</v>
+      </c>
       <c r="R3" t="n">
         <v>1343.5</v>
       </c>
@@ -816,9 +828,15 @@
       <c r="N6" t="n">
         <v>2.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>64.73</v>
+      </c>
       <c r="R6" t="n">
         <v>2762.5</v>
       </c>
@@ -871,9 +889,15 @@
       <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P7" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63.71</v>
+      </c>
       <c r="R7" t="n">
         <v>2697.5</v>
       </c>
@@ -1020,9 +1044,15 @@
       <c r="N10" t="n">
         <v>2.5</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>69.42</v>
+      </c>
       <c r="R10" t="n">
         <v>917</v>
       </c>
@@ -1075,9 +1105,15 @@
       <c r="N11" t="n">
         <v>3</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>48.51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>68.75</v>
+      </c>
       <c r="R11" t="n">
         <v>1929.8</v>
       </c>
@@ -1224,9 +1260,15 @@
       <c r="N14" t="n">
         <v>2.5</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>65.48</v>
+      </c>
       <c r="R14" t="n">
         <v>2759.1</v>
       </c>
@@ -1279,9 +1321,15 @@
       <c r="N15" t="n">
         <v>2.5</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>64.22</v>
+      </c>
       <c r="R15" t="n">
         <v>2554</v>
       </c>
@@ -1428,9 +1476,15 @@
       <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="P18" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>68.18</v>
+      </c>
       <c r="R18" t="n">
         <v>2415.7</v>
       </c>
@@ -1483,9 +1537,15 @@
       <c r="N19" t="n">
         <v>2.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>65.45</v>
+      </c>
       <c r="R19" t="n">
         <v>2428.2</v>
       </c>
@@ -1632,9 +1692,15 @@
       <c r="N22" t="n">
         <v>1.5</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>68.13</v>
+      </c>
       <c r="R22" t="n">
         <v>2035.8</v>
       </c>
@@ -1687,9 +1753,15 @@
       <c r="N23" t="n">
         <v>1.5</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>68.28</v>
+      </c>
       <c r="R23" t="n">
         <v>1670.2</v>
       </c>
@@ -1836,9 +1908,15 @@
       <c r="N26" t="n">
         <v>2.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="P26" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.81</v>
+      </c>
       <c r="R26" t="n">
         <v>2587</v>
       </c>
@@ -1891,9 +1969,15 @@
       <c r="N27" t="n">
         <v>2.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>64.53</v>
+      </c>
       <c r="R27" t="n">
         <v>1901.7</v>
       </c>
@@ -2040,9 +2124,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>64.6</v>
+      </c>
       <c r="R30" t="n">
         <v>1220.7</v>
       </c>
@@ -2095,9 +2185,15 @@
       <c r="N31" t="n">
         <v>2</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>62.88</v>
+      </c>
       <c r="R31" t="n">
         <v>2417.7</v>
       </c>
@@ -2244,9 +2340,15 @@
       <c r="N34" t="n">
         <v>2</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>69.08</v>
+      </c>
       <c r="R34" t="n">
         <v>1428.8</v>
       </c>
@@ -2299,9 +2401,15 @@
       <c r="N35" t="n">
         <v>2</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="P35" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>68.43</v>
+      </c>
       <c r="R35" t="n">
         <v>2116.7</v>
       </c>
@@ -2448,9 +2556,15 @@
       <c r="N38" t="n">
         <v>1.5</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="P38" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>64.69</v>
+      </c>
       <c r="R38" t="n">
         <v>2636.7</v>
       </c>
@@ -2503,9 +2617,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>64.02</v>
+      </c>
       <c r="R39" t="n">
         <v>2258.6</v>
       </c>
@@ -2652,9 +2772,15 @@
       <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>65.95</v>
+      </c>
       <c r="R42" t="n">
         <v>2033.2</v>
       </c>
@@ -2707,9 +2833,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>64.79</v>
+      </c>
       <c r="R43" t="n">
         <v>2478.7</v>
       </c>
@@ -2856,9 +2988,15 @@
       <c r="N46" t="n">
         <v>2.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>68.46</v>
+      </c>
       <c r="R46" t="n">
         <v>2379</v>
       </c>
@@ -2911,9 +3049,15 @@
       <c r="N47" t="n">
         <v>2</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P47" t="n">
+        <v>46.93</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>67.95</v>
+      </c>
       <c r="R47" t="n">
         <v>2362.3</v>
       </c>
@@ -3060,9 +3204,15 @@
       <c r="N50" t="n">
         <v>2</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="P50" t="n">
+        <v>44.47</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>66.14</v>
+      </c>
       <c r="R50" t="n">
         <v>1935.1</v>
       </c>
@@ -3115,9 +3265,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>64.63</v>
+      </c>
       <c r="R51" t="n">
         <v>1818.2</v>
       </c>
@@ -3264,9 +3420,15 @@
       <c r="N54" t="n">
         <v>2.5</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>46.29</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>67.07</v>
+      </c>
       <c r="R54" t="n">
         <v>1117.6</v>
       </c>
@@ -3319,9 +3481,15 @@
       <c r="N55" t="n">
         <v>2.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="P55" t="n">
+        <v>46.03</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>67.5</v>
+      </c>
       <c r="R55" t="n">
         <v>1277.5</v>
       </c>
@@ -3468,9 +3636,15 @@
       <c r="N58" t="n">
         <v>1.5</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>69.83</v>
+      </c>
       <c r="R58" t="n">
         <v>581.4</v>
       </c>
@@ -3523,9 +3697,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>67.39</v>
+      </c>
       <c r="R59" t="n">
         <v>2070.7</v>
       </c>
@@ -3672,9 +3852,15 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="P62" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>66.5</v>
+      </c>
       <c r="R62" t="n">
         <v>1164.4</v>
       </c>
@@ -3727,9 +3913,15 @@
       <c r="N63" t="n">
         <v>1.5</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="P63" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>64.82</v>
+      </c>
       <c r="R63" t="n">
         <v>2184.7</v>
       </c>
@@ -3876,9 +4068,15 @@
       <c r="N66" t="n">
         <v>2</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P66" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>62.2</v>
+      </c>
       <c r="R66" t="n">
         <v>1439.3</v>
       </c>
@@ -3931,9 +4129,15 @@
       <c r="N67" t="n">
         <v>2</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>62.81</v>
+      </c>
       <c r="R67" t="n">
         <v>1829.7</v>
       </c>
@@ -4080,9 +4284,15 @@
       <c r="N70" t="n">
         <v>2.5</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="P70" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>61.06</v>
+      </c>
       <c r="R70" t="n">
         <v>1820.6</v>
       </c>
@@ -4135,9 +4345,15 @@
       <c r="N71" t="n">
         <v>2.5</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="P71" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>61.06</v>
+      </c>
       <c r="R71" t="n">
         <v>1820.6</v>
       </c>
@@ -4190,9 +4406,15 @@
       <c r="N72" t="n">
         <v>2.5</v>
       </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="P72" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>61.06</v>
+      </c>
       <c r="R72" t="n">
         <v>1820.6</v>
       </c>
@@ -4245,9 +4467,15 @@
       <c r="N73" t="n">
         <v>2</v>
       </c>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P73" t="n">
+        <v>37.81</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>60.87</v>
+      </c>
       <c r="R73" t="n">
         <v>1537.4</v>
       </c>
@@ -4394,9 +4622,15 @@
       <c r="N76" t="n">
         <v>2</v>
       </c>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="P76" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>65.95</v>
+      </c>
       <c r="R76" t="n">
         <v>2119.5</v>
       </c>
@@ -4449,9 +4683,15 @@
       <c r="N77" t="n">
         <v>2.5</v>
       </c>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="P77" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R77" t="n">
         <v>2356.4</v>
       </c>
@@ -4598,9 +4838,15 @@
       <c r="N80" t="n">
         <v>1.5</v>
       </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R80" t="n">
         <v>2303.5</v>
       </c>
@@ -4653,9 +4899,15 @@
       <c r="N81" t="n">
         <v>1.5</v>
       </c>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="P81" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>62.72</v>
+      </c>
       <c r="R81" t="n">
         <v>2209.9</v>
       </c>

--- a/exports/yield_files/Jay Test 2.xlsx
+++ b/exports/yield_files/Jay Test 2.xlsx
@@ -4323,10 +4323,10 @@
         <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -4340,31 +4340,31 @@
         <v>25</v>
       </c>
       <c r="M71" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>24.17</v>
+        <v>23.06</v>
       </c>
       <c r="P71" t="n">
-        <v>36.89</v>
+        <v>37.81</v>
       </c>
       <c r="Q71" t="n">
-        <v>61.06</v>
+        <v>60.87</v>
       </c>
       <c r="R71" t="n">
-        <v>1820.6</v>
+        <v>1537.4</v>
       </c>
       <c r="S71" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="T71" t="n">
         <v>1.5</v>
       </c>
       <c r="U71" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -4384,16 +4384,14 @@
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>26</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="s">
         <v>24</v>
       </c>
@@ -4401,29 +4399,19 @@
         <v>25</v>
       </c>
       <c r="M72" t="n">
-        <v>42</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O72" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="P72" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>61.06</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
       <c r="R72" t="n">
-        <v>1820.6</v>
+        <v>2805</v>
       </c>
       <c r="S72" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.5</v>
-      </c>
+        <v>16.1</v>
+      </c>
+      <c r="T72"/>
       <c r="U72" t="n">
         <v>54.7</v>
       </c>
@@ -4445,48 +4433,32 @@
         <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" t="n">
-        <v>26</v>
-      </c>
+      <c r="J73"/>
       <c r="K73" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="M73" t="n">
-        <v>40</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2</v>
-      </c>
-      <c r="O73" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="P73" t="n">
-        <v>37.81</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>60.87</v>
-      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
       <c r="R73" t="n">
-        <v>1537.4</v>
-      </c>
-      <c r="S73" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2751.8</v>
+      </c>
+      <c r="S73"/>
+      <c r="T73"/>
       <c r="U73" t="n">
-        <v>55</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="74">
@@ -4500,42 +4472,54 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="n">
+        <v>20</v>
+      </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L74" t="s">
         <v>25</v>
       </c>
       <c r="M74" t="n">
-        <v>43</v>
-      </c>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+        <v>42</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="P74" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>65.95</v>
+      </c>
       <c r="R74" t="n">
-        <v>2805</v>
+        <v>2119.5</v>
       </c>
       <c r="S74" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="T74"/>
+        <v>15.8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U74" t="n">
-        <v>54.7</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="75">
@@ -4549,38 +4533,54 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
+      <c r="J75" t="n">
+        <v>21</v>
+      </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L75" t="s">
         <v>25</v>
       </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="M75" t="n">
+        <v>39</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="P75" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R75" t="n">
-        <v>2751.8</v>
-      </c>
-      <c r="S75"/>
-      <c r="T75"/>
+        <v>2356.4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
-        <v>54.2</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="76">
@@ -4600,16 +4600,14 @@
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>20</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" t="s">
         <v>28</v>
       </c>
@@ -4617,29 +4615,19 @@
         <v>25</v>
       </c>
       <c r="M76" t="n">
-        <v>42</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="P76" t="n">
-        <v>44.67</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>65.95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
       <c r="R76" t="n">
-        <v>2119.5</v>
+        <v>2489.7</v>
       </c>
       <c r="S76" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.5</v>
-      </c>
+        <v>15.4</v>
+      </c>
+      <c r="T76"/>
       <c r="U76" t="n">
         <v>56.6</v>
       </c>
@@ -4661,48 +4649,32 @@
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77" t="n">
-        <v>21</v>
-      </c>
+      <c r="J77"/>
       <c r="K77" t="s">
         <v>28</v>
       </c>
       <c r="L77" t="s">
         <v>25</v>
       </c>
-      <c r="M77" t="n">
-        <v>39</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O77" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="P77" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>65.31</v>
-      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
       <c r="R77" t="n">
-        <v>2356.4</v>
-      </c>
-      <c r="S77" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2415.3</v>
+      </c>
+      <c r="S77"/>
+      <c r="T77"/>
       <c r="U77" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="78">
@@ -4716,40 +4688,52 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
+      <c r="J78" t="n">
+        <v>21</v>
+      </c>
       <c r="K78" t="s">
         <v>28</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M78" t="n">
-        <v>40</v>
-      </c>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+        <v>38</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R78" t="n">
-        <v>2489.7</v>
+        <v>2303.5</v>
       </c>
       <c r="S78" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T78"/>
+        <v>10.9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
         <v>56.6</v>
       </c>
@@ -4765,38 +4749,54 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
+      <c r="J79" t="n">
+        <v>21</v>
+      </c>
       <c r="K79" t="s">
         <v>28</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+        <v>43</v>
+      </c>
+      <c r="M79" t="n">
+        <v>40</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="P79" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>62.72</v>
+      </c>
       <c r="R79" t="n">
-        <v>2415.3</v>
-      </c>
-      <c r="S79"/>
-      <c r="T79"/>
+        <v>2209.9</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U79" t="n">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="80">
@@ -4816,16 +4816,14 @@
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>21</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>28</v>
       </c>
@@ -4833,31 +4831,21 @@
         <v>43</v>
       </c>
       <c r="M80" t="n">
-        <v>38</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O80" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="P80" t="n">
-        <v>42.02</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>63.12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
       <c r="R80" t="n">
-        <v>2303.5</v>
+        <v>2405.6</v>
       </c>
       <c r="S80" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="T80"/>
       <c r="U80" t="n">
-        <v>56.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="81">
@@ -4877,48 +4865,32 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" t="n">
-        <v>21</v>
-      </c>
+      <c r="J81"/>
       <c r="K81" t="s">
         <v>28</v>
       </c>
       <c r="L81" t="s">
         <v>43</v>
       </c>
-      <c r="M81" t="n">
-        <v>40</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O81" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="P81" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>62.72</v>
-      </c>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="R81" t="n">
-        <v>2209.9</v>
-      </c>
-      <c r="S81" t="n">
-        <v>11</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2463.2</v>
+      </c>
+      <c r="S81"/>
+      <c r="T81"/>
       <c r="U81" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="82">
@@ -4926,48 +4898,60 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" t="n">
+        <v>14</v>
+      </c>
       <c r="K82" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L82" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M82" t="n">
-        <v>44</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+        <v>26</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="P82" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>70.23</v>
+      </c>
       <c r="R82" t="n">
-        <v>2405.6</v>
+        <v>1656.1</v>
       </c>
       <c r="S82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T82"/>
+        <v>16.1</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
       <c r="U82" t="n">
-        <v>57.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="83">
@@ -4975,44 +4959,60 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E83" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83"/>
+      <c r="J83" t="n">
+        <v>15</v>
+      </c>
       <c r="K83" t="s">
+        <v>49</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" t="n">
         <v>28</v>
       </c>
-      <c r="L83" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
+      <c r="N83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="P83" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>69.79</v>
+      </c>
       <c r="R83" t="n">
-        <v>2463.2</v>
-      </c>
-      <c r="S83"/>
-      <c r="T83"/>
+        <v>1872</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U83" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="84">
@@ -5032,48 +5032,34 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" t="n">
-        <v>14</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" t="s">
         <v>49</v>
       </c>
       <c r="L84" t="s">
         <v>25</v>
       </c>
-      <c r="M84" t="n">
-        <v>26</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-      <c r="O84" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="P84" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>70.23</v>
-      </c>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
       <c r="R84" t="n">
-        <v>1656.1</v>
+        <v>2070.5</v>
       </c>
       <c r="S84" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1</v>
-      </c>
+        <v>15.4</v>
+      </c>
+      <c r="T84"/>
       <c r="U84" t="n">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="85">
@@ -5093,48 +5079,32 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" t="n">
-        <v>15</v>
-      </c>
+      <c r="J85"/>
       <c r="K85" t="s">
         <v>49</v>
       </c>
       <c r="L85" t="s">
         <v>25</v>
       </c>
-      <c r="M85" t="n">
-        <v>28</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O85" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="P85" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>69.79</v>
-      </c>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
       <c r="R85" t="n">
-        <v>1872</v>
-      </c>
-      <c r="S85" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1991.6</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85"/>
       <c r="U85" t="n">
-        <v>56.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="86">
@@ -5148,40 +5118,54 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
       <c r="G86" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>14</v>
+      </c>
       <c r="K86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L86" t="s">
         <v>25</v>
       </c>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="M86" t="n">
+        <v>26</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P86" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>65.33</v>
+      </c>
       <c r="R86" t="n">
-        <v>2070.5</v>
+        <v>2151.4</v>
       </c>
       <c r="S86" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T86"/>
+        <v>13.2</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U86" t="n">
-        <v>56.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="87">
@@ -5195,38 +5179,54 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
         <v>23</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4</v>
-      </c>
-      <c r="G87" t="n">
-        <v>73</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87"/>
+      <c r="J87" t="n">
+        <v>13</v>
+      </c>
       <c r="K87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L87" t="s">
         <v>25</v>
       </c>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="M87" t="n">
+        <v>27</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="P87" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>64.61</v>
+      </c>
       <c r="R87" t="n">
-        <v>1991.6</v>
-      </c>
-      <c r="S87"/>
-      <c r="T87"/>
+        <v>2113.7</v>
+      </c>
+      <c r="S87" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U87" t="n">
-        <v>57.3</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="88">
@@ -5246,48 +5246,34 @@
         <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" t="n">
-        <v>14</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" t="s">
         <v>50</v>
       </c>
       <c r="L88" t="s">
         <v>25</v>
       </c>
-      <c r="M88" t="n">
-        <v>26</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O88" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="P88" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>65.33</v>
-      </c>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
       <c r="R88" t="n">
-        <v>2151.4</v>
+        <v>1930.6</v>
       </c>
       <c r="S88" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="T88"/>
       <c r="U88" t="n">
-        <v>57.3</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="89">
@@ -5307,48 +5293,32 @@
         <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" t="n">
-        <v>13</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" t="s">
         <v>50</v>
       </c>
       <c r="L89" t="s">
         <v>25</v>
       </c>
-      <c r="M89" t="n">
-        <v>27</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O89" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="P89" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>64.61</v>
-      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
       <c r="R89" t="n">
-        <v>2113.7</v>
-      </c>
-      <c r="S89" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T89" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1932.3</v>
+      </c>
+      <c r="S89"/>
+      <c r="T89"/>
       <c r="U89" t="n">
-        <v>56.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="90">
@@ -5362,40 +5332,54 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>17</v>
+      </c>
       <c r="K90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L90" t="s">
         <v>25</v>
       </c>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="M90" t="n">
+        <v>38</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="P90" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>69.79</v>
+      </c>
       <c r="R90" t="n">
-        <v>1930.6</v>
+        <v>1867.4</v>
       </c>
       <c r="S90" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T90"/>
+        <v>12.4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U90" t="n">
-        <v>56.3</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="91">
@@ -5409,38 +5393,56 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
         <v>2</v>
       </c>
-      <c r="F91" t="n">
-        <v>4</v>
-      </c>
       <c r="G91" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
+      <c r="I91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" t="n">
+        <v>17</v>
+      </c>
       <c r="K91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L91" t="s">
         <v>25</v>
       </c>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="M91" t="n">
+        <v>35</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="P91" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>68.01</v>
+      </c>
       <c r="R91" t="n">
-        <v>1932.3</v>
-      </c>
-      <c r="S91"/>
-      <c r="T91"/>
+        <v>1125.5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U91" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="92">
@@ -5460,48 +5462,34 @@
         <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92" t="n">
-        <v>17</v>
-      </c>
+      <c r="J92"/>
       <c r="K92" t="s">
         <v>51</v>
       </c>
       <c r="L92" t="s">
         <v>25</v>
       </c>
-      <c r="M92" t="n">
-        <v>38</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O92" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="P92" t="n">
-        <v>49.47</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>69.79</v>
-      </c>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
       <c r="R92" t="n">
-        <v>1867.4</v>
+        <v>1343.5</v>
       </c>
       <c r="S92" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="T92"/>
       <c r="U92" t="n">
-        <v>57.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="93">
@@ -5521,50 +5509,32 @@
         <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H93"/>
-      <c r="I93" t="s">
-        <v>52</v>
-      </c>
-      <c r="J93" t="n">
-        <v>17</v>
-      </c>
+      <c r="I93"/>
+      <c r="J93"/>
       <c r="K93" t="s">
         <v>51</v>
       </c>
       <c r="L93" t="s">
         <v>25</v>
       </c>
-      <c r="M93" t="n">
-        <v>35</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2</v>
-      </c>
-      <c r="O93" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="P93" t="n">
-        <v>48.21</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>68.01</v>
-      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
       <c r="R93" t="n">
-        <v>1125.5</v>
-      </c>
-      <c r="S93" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1606.8</v>
+      </c>
+      <c r="S93"/>
+      <c r="T93"/>
       <c r="U93" t="n">
-        <v>55.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94">
@@ -5578,40 +5548,54 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94"/>
+      <c r="J94" t="n">
+        <v>14</v>
+      </c>
       <c r="K94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L94" t="s">
         <v>25</v>
       </c>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="M94" t="n">
+        <v>31</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="P94" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>64.65</v>
+      </c>
       <c r="R94" t="n">
-        <v>1343.5</v>
+        <v>2338.3</v>
       </c>
       <c r="S94" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="T94"/>
+        <v>13.6</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
       <c r="U94" t="n">
-        <v>57.6</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="95">
@@ -5625,38 +5609,56 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
+      <c r="I95" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" t="n">
+        <v>15</v>
+      </c>
       <c r="K95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L95" t="s">
         <v>25</v>
       </c>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="M95" t="n">
+        <v>30</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P95" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>65.04</v>
+      </c>
       <c r="R95" t="n">
-        <v>1606.8</v>
-      </c>
-      <c r="S95"/>
-      <c r="T95"/>
+        <v>1089</v>
+      </c>
+      <c r="S95" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U95" t="n">
-        <v>58</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="96">
@@ -5676,48 +5678,34 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" t="n">
-        <v>14</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" t="s">
         <v>49</v>
       </c>
       <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="M96" t="n">
-        <v>31</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="P96" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>64.65</v>
-      </c>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
       <c r="R96" t="n">
-        <v>2338.3</v>
+        <v>2303</v>
       </c>
       <c r="S96" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="T96" t="n">
-        <v>1</v>
-      </c>
+        <v>12.5</v>
+      </c>
+      <c r="T96"/>
       <c r="U96" t="n">
-        <v>55.1</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="97">
@@ -5737,50 +5725,32 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H97"/>
-      <c r="I97" t="s">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>15</v>
-      </c>
+      <c r="I97"/>
+      <c r="J97"/>
       <c r="K97" t="s">
         <v>49</v>
       </c>
       <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="M97" t="n">
-        <v>30</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O97" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="P97" t="n">
-        <v>42.76</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>65.04</v>
-      </c>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
       <c r="R97" t="n">
-        <v>1089</v>
-      </c>
-      <c r="S97" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T97" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2188</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
       <c r="U97" t="n">
-        <v>55.7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="98">
@@ -5794,40 +5764,54 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98"/>
+      <c r="J98" t="n">
+        <v>15</v>
+      </c>
       <c r="K98" t="s">
         <v>49</v>
       </c>
       <c r="L98" t="s">
         <v>25</v>
       </c>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="M98" t="n">
+        <v>34</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="P98" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>68.13</v>
+      </c>
       <c r="R98" t="n">
-        <v>2303</v>
+        <v>2162.1</v>
       </c>
       <c r="S98" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T98"/>
+        <v>12</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
       <c r="U98" t="n">
-        <v>57.4</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="99">
@@ -5841,38 +5825,54 @@
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
-      <c r="J99"/>
+      <c r="J99" t="n">
+        <v>13</v>
+      </c>
       <c r="K99" t="s">
         <v>49</v>
       </c>
       <c r="L99" t="s">
         <v>25</v>
       </c>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
+      <c r="M99" t="n">
+        <v>33</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>67.74</v>
+      </c>
       <c r="R99" t="n">
-        <v>2188</v>
-      </c>
-      <c r="S99"/>
-      <c r="T99"/>
+        <v>2222.4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
       <c r="U99" t="n">
-        <v>57.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="100">
@@ -5892,48 +5892,34 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100" t="n">
-        <v>15</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" t="s">
         <v>49</v>
       </c>
       <c r="L100" t="s">
         <v>25</v>
       </c>
-      <c r="M100" t="n">
-        <v>34</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="P100" t="n">
-        <v>47.87</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>68.13</v>
-      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
       <c r="R100" t="n">
-        <v>2162.1</v>
+        <v>1691.5</v>
       </c>
       <c r="S100" t="n">
-        <v>12</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1</v>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="T100"/>
       <c r="U100" t="n">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="101">
@@ -5953,48 +5939,32 @@
         <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101" t="n">
-        <v>13</v>
-      </c>
+      <c r="J101"/>
       <c r="K101" t="s">
         <v>49</v>
       </c>
       <c r="L101" t="s">
         <v>25</v>
       </c>
-      <c r="M101" t="n">
-        <v>33</v>
-      </c>
-      <c r="N101" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O101" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="P101" t="n">
-        <v>47.07</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>67.74</v>
-      </c>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
       <c r="R101" t="n">
-        <v>2222.4</v>
-      </c>
-      <c r="S101" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1</v>
-      </c>
+        <v>2052.6</v>
+      </c>
+      <c r="S101"/>
+      <c r="T101"/>
       <c r="U101" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="102">
@@ -6008,40 +5978,54 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102"/>
+      <c r="J102" t="n">
+        <v>15</v>
+      </c>
       <c r="K102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L102" t="s">
         <v>25</v>
       </c>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="M102" t="n">
+        <v>30</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="P102" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>67.95</v>
+      </c>
       <c r="R102" t="n">
-        <v>1691.5</v>
+        <v>2018.9</v>
       </c>
       <c r="S102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T102"/>
+        <v>11.9</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U102" t="n">
-        <v>55.8</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="103">
@@ -6055,38 +6039,54 @@
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
-      <c r="J103"/>
+      <c r="J103" t="n">
+        <v>13</v>
+      </c>
       <c r="K103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L103" t="s">
         <v>25</v>
       </c>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
+      <c r="M103" t="n">
+        <v>32</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P103" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>66.85</v>
+      </c>
       <c r="R103" t="n">
-        <v>2052.6</v>
-      </c>
-      <c r="S103"/>
-      <c r="T103"/>
+        <v>1732</v>
+      </c>
+      <c r="S103" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U103" t="n">
-        <v>55.3</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="104">
@@ -6106,48 +6106,34 @@
         <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
-      <c r="J104" t="n">
-        <v>15</v>
-      </c>
+      <c r="J104"/>
       <c r="K104" t="s">
         <v>51</v>
       </c>
       <c r="L104" t="s">
         <v>25</v>
       </c>
-      <c r="M104" t="n">
-        <v>30</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="P104" t="n">
-        <v>48.08</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>67.95</v>
-      </c>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
       <c r="R104" t="n">
-        <v>2018.9</v>
+        <v>1948</v>
       </c>
       <c r="S104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="T104" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T104"/>
       <c r="U104" t="n">
-        <v>59.6</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="105">
@@ -6167,48 +6153,32 @@
         <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105" t="n">
-        <v>13</v>
-      </c>
+      <c r="J105"/>
       <c r="K105" t="s">
         <v>51</v>
       </c>
       <c r="L105" t="s">
         <v>25</v>
       </c>
-      <c r="M105" t="n">
-        <v>32</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="P105" t="n">
-        <v>45.78</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>66.85</v>
-      </c>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
       <c r="R105" t="n">
-        <v>1732</v>
-      </c>
-      <c r="S105" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="S105"/>
+      <c r="T105"/>
       <c r="U105" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="106">
@@ -6222,40 +6192,54 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
         <v>6</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>48</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106"/>
+      <c r="J106" t="n">
+        <v>16</v>
+      </c>
       <c r="K106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L106" t="s">
         <v>25</v>
       </c>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="M106" t="n">
+        <v>24</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="P106" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>66.74</v>
+      </c>
       <c r="R106" t="n">
-        <v>1948</v>
+        <v>1350.2</v>
       </c>
       <c r="S106" t="n">
-        <v>12</v>
-      </c>
-      <c r="T106"/>
+        <v>13.2</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U106" t="n">
-        <v>58.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="107">
@@ -6269,38 +6253,52 @@
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
+      <c r="I107" t="s">
+        <v>53</v>
+      </c>
+      <c r="J107" t="n">
+        <v>16</v>
+      </c>
       <c r="K107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L107" t="s">
         <v>25</v>
       </c>
       <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P107" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>65.67</v>
+      </c>
       <c r="R107" t="n">
-        <v>2001</v>
-      </c>
-      <c r="S107"/>
+        <v>523.4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>11.4</v>
+      </c>
       <c r="T107"/>
       <c r="U107" t="n">
-        <v>58.3</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="108">
@@ -6320,48 +6318,34 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" t="n">
-        <v>16</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="s">
         <v>49</v>
       </c>
       <c r="L108" t="s">
         <v>25</v>
       </c>
-      <c r="M108" t="n">
-        <v>24</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="P108" t="n">
-        <v>45.03</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>66.74</v>
-      </c>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
       <c r="R108" t="n">
-        <v>1350.2</v>
+        <v>2116.6</v>
       </c>
       <c r="S108" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T108" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12.8</v>
+      </c>
+      <c r="T108"/>
       <c r="U108" t="n">
-        <v>55.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109">
@@ -6381,18 +6365,14 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H109"/>
-      <c r="I109" t="s">
-        <v>53</v>
-      </c>
-      <c r="J109" t="n">
-        <v>16</v>
-      </c>
+      <c r="I109"/>
+      <c r="J109"/>
       <c r="K109" t="s">
         <v>49</v>
       </c>
@@ -6400,27 +6380,17 @@
         <v>25</v>
       </c>
       <c r="M109"/>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O109" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="P109" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>65.67</v>
-      </c>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
       <c r="R109" t="n">
-        <v>523.4</v>
-      </c>
-      <c r="S109" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1865.4</v>
+      </c>
+      <c r="S109"/>
       <c r="T109"/>
       <c r="U109" t="n">
-        <v>55.2</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="110">
@@ -6434,40 +6404,54 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110"/>
+      <c r="J110" t="n">
+        <v>15</v>
+      </c>
       <c r="K110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L110" t="s">
         <v>25</v>
       </c>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="M110" t="n">
+        <v>30</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P110" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>65.05</v>
+      </c>
       <c r="R110" t="n">
-        <v>2116.6</v>
+        <v>1504.5</v>
       </c>
       <c r="S110" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T110"/>
+        <v>11.9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U110" t="n">
-        <v>58</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="111">
@@ -6481,38 +6465,54 @@
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111"/>
+      <c r="J111" t="n">
+        <v>13</v>
+      </c>
       <c r="K111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L111" t="s">
         <v>25</v>
       </c>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
+      <c r="M111" t="n">
+        <v>32</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>21</v>
+      </c>
+      <c r="P111" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>65.4</v>
+      </c>
       <c r="R111" t="n">
-        <v>1865.4</v>
-      </c>
-      <c r="S111"/>
-      <c r="T111"/>
+        <v>2175.5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U111" t="n">
-        <v>56.2</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="112">
@@ -6532,48 +6532,34 @@
         <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112" t="n">
-        <v>15</v>
-      </c>
+      <c r="J112"/>
       <c r="K112" t="s">
         <v>51</v>
       </c>
       <c r="L112" t="s">
         <v>25</v>
       </c>
-      <c r="M112" t="n">
-        <v>30</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2</v>
-      </c>
-      <c r="O112" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="P112" t="n">
-        <v>43.21</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>65.05</v>
-      </c>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
       <c r="R112" t="n">
-        <v>1504.5</v>
+        <v>2316</v>
       </c>
       <c r="S112" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T112"/>
       <c r="U112" t="n">
-        <v>56.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113">
@@ -6593,48 +6579,32 @@
         <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113" t="n">
-        <v>13</v>
-      </c>
+      <c r="J113"/>
       <c r="K113" t="s">
         <v>51</v>
       </c>
       <c r="L113" t="s">
         <v>25</v>
       </c>
-      <c r="M113" t="n">
-        <v>32</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2</v>
-      </c>
-      <c r="O113" t="n">
-        <v>21</v>
-      </c>
-      <c r="P113" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>65.4</v>
-      </c>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
       <c r="R113" t="n">
-        <v>2175.5</v>
-      </c>
-      <c r="S113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1948.1</v>
+      </c>
+      <c r="S113"/>
+      <c r="T113"/>
       <c r="U113" t="n">
-        <v>58.4</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="114">
@@ -6648,40 +6618,54 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
+      <c r="J114" t="n">
+        <v>12</v>
+      </c>
       <c r="K114" t="s">
         <v>51</v>
       </c>
       <c r="L114" t="s">
         <v>25</v>
       </c>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+      <c r="M114" t="n">
+        <v>27</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="P114" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>68.81</v>
+      </c>
       <c r="R114" t="n">
-        <v>2316</v>
+        <v>1973.8</v>
       </c>
       <c r="S114" t="n">
-        <v>12</v>
-      </c>
-      <c r="T114"/>
+        <v>12.1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
       <c r="U114" t="n">
-        <v>58</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="115">
@@ -6695,38 +6679,54 @@
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
-      <c r="J115"/>
+      <c r="J115" t="n">
+        <v>13</v>
+      </c>
       <c r="K115" t="s">
         <v>51</v>
       </c>
       <c r="L115" t="s">
         <v>25</v>
       </c>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
+      <c r="M115" t="n">
+        <v>28</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="P115" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>68.64</v>
+      </c>
       <c r="R115" t="n">
-        <v>1948.1</v>
-      </c>
-      <c r="S115"/>
-      <c r="T115"/>
+        <v>2021.3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
       <c r="U115" t="n">
-        <v>57.2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="116">
@@ -6746,48 +6746,34 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
-      <c r="J116" t="n">
-        <v>12</v>
-      </c>
+      <c r="J116"/>
       <c r="K116" t="s">
         <v>51</v>
       </c>
       <c r="L116" t="s">
         <v>25</v>
       </c>
-      <c r="M116" t="n">
-        <v>27</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-      <c r="O116" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="P116" t="n">
-        <v>49.83</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>68.81</v>
-      </c>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
       <c r="R116" t="n">
-        <v>1973.8</v>
+        <v>2277.6</v>
       </c>
       <c r="S116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T116" t="n">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="T116"/>
       <c r="U116" t="n">
-        <v>56.6</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="117">
@@ -6807,48 +6793,32 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117" t="n">
-        <v>13</v>
-      </c>
+      <c r="J117"/>
       <c r="K117" t="s">
         <v>51</v>
       </c>
       <c r="L117" t="s">
         <v>25</v>
       </c>
-      <c r="M117" t="n">
-        <v>28</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-      <c r="O117" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="P117" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>68.64</v>
-      </c>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
       <c r="R117" t="n">
-        <v>2021.3</v>
-      </c>
-      <c r="S117" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1</v>
-      </c>
+        <v>2039.8</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
       <c r="U117" t="n">
-        <v>55.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="118">
@@ -6862,40 +6832,54 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>14</v>
+      </c>
       <c r="K118" t="s">
         <v>51</v>
       </c>
       <c r="L118" t="s">
         <v>25</v>
       </c>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="M118" t="n">
+        <v>32</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="P118" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>65.28</v>
+      </c>
       <c r="R118" t="n">
-        <v>2277.6</v>
+        <v>2109.8</v>
       </c>
       <c r="S118" t="n">
-        <v>13</v>
-      </c>
-      <c r="T118"/>
+        <v>13.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U118" t="n">
-        <v>54.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119">
@@ -6909,38 +6893,56 @@
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
+      <c r="I119" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" t="n">
+        <v>13</v>
+      </c>
       <c r="K119" t="s">
         <v>51</v>
       </c>
       <c r="L119" t="s">
         <v>25</v>
       </c>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="M119" t="n">
+        <v>30</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="P119" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>64.85</v>
+      </c>
       <c r="R119" t="n">
-        <v>2039.8</v>
-      </c>
-      <c r="S119"/>
-      <c r="T119"/>
+        <v>1686.9</v>
+      </c>
+      <c r="S119" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U119" t="n">
-        <v>57.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="120">
@@ -6960,48 +6962,34 @@
         <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
-      <c r="J120" t="n">
-        <v>14</v>
-      </c>
+      <c r="J120"/>
       <c r="K120" t="s">
         <v>51</v>
       </c>
       <c r="L120" t="s">
         <v>25</v>
       </c>
-      <c r="M120" t="n">
-        <v>32</v>
-      </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-      <c r="O120" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="P120" t="n">
-        <v>43.18</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
       <c r="R120" t="n">
-        <v>2109.8</v>
+        <v>2186.1</v>
       </c>
       <c r="S120" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.3</v>
+      </c>
+      <c r="T120"/>
       <c r="U120" t="n">
-        <v>58</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="121">
@@ -7021,50 +7009,32 @@
         <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H121"/>
-      <c r="I121" t="s">
-        <v>52</v>
-      </c>
-      <c r="J121" t="n">
-        <v>13</v>
-      </c>
+      <c r="I121"/>
+      <c r="J121"/>
       <c r="K121" t="s">
         <v>51</v>
       </c>
       <c r="L121" t="s">
         <v>25</v>
       </c>
-      <c r="M121" t="n">
-        <v>30</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2</v>
-      </c>
-      <c r="O121" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="P121" t="n">
-        <v>42.06</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>64.85</v>
-      </c>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
       <c r="R121" t="n">
-        <v>1686.9</v>
-      </c>
-      <c r="S121" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2288.5</v>
+      </c>
+      <c r="S121"/>
+      <c r="T121"/>
       <c r="U121" t="n">
-        <v>57.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="122">
@@ -7078,40 +7048,54 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
         <v>3</v>
-      </c>
-      <c r="G122" t="n">
-        <v>44</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122"/>
+      <c r="J122" t="n">
+        <v>14</v>
+      </c>
       <c r="K122" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L122" t="s">
         <v>25</v>
       </c>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+      <c r="M122" t="n">
+        <v>26</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="P122" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>66.71</v>
+      </c>
       <c r="R122" t="n">
-        <v>2186.1</v>
+        <v>1936.1</v>
       </c>
       <c r="S122" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T122"/>
+        <v>11.5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U122" t="n">
-        <v>57.9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123">
@@ -7125,38 +7109,54 @@
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
-      <c r="J123"/>
+      <c r="J123" t="n">
+        <v>16</v>
+      </c>
       <c r="K123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L123" t="s">
         <v>25</v>
       </c>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
+      <c r="M123" t="n">
+        <v>27</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="P123" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>66.46</v>
+      </c>
       <c r="R123" t="n">
-        <v>2288.5</v>
-      </c>
-      <c r="S123"/>
-      <c r="T123"/>
+        <v>2002.4</v>
+      </c>
+      <c r="S123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
       <c r="U123" t="n">
-        <v>56.1</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="124">
@@ -7176,48 +7176,34 @@
         <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
-      <c r="J124" t="n">
-        <v>14</v>
-      </c>
+      <c r="J124"/>
       <c r="K124" t="s">
         <v>54</v>
       </c>
       <c r="L124" t="s">
         <v>25</v>
       </c>
-      <c r="M124" t="n">
-        <v>26</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
-      <c r="O124" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="P124" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>66.71</v>
-      </c>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
       <c r="R124" t="n">
-        <v>1936.1</v>
+        <v>1928.3</v>
       </c>
       <c r="S124" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="T124"/>
       <c r="U124" t="n">
-        <v>58</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="125">
@@ -7237,48 +7223,32 @@
         <v>11</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125" t="n">
-        <v>16</v>
-      </c>
+      <c r="J125"/>
       <c r="K125" t="s">
         <v>54</v>
       </c>
       <c r="L125" t="s">
         <v>25</v>
       </c>
-      <c r="M125" t="n">
-        <v>27</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O125" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="P125" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>66.46</v>
-      </c>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
       <c r="R125" t="n">
-        <v>2002.4</v>
-      </c>
-      <c r="S125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="T125" t="n">
-        <v>1</v>
-      </c>
+        <v>2148.5</v>
+      </c>
+      <c r="S125"/>
+      <c r="T125"/>
       <c r="U125" t="n">
-        <v>57.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="126">
@@ -7292,40 +7262,54 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126"/>
+      <c r="J126" t="n">
+        <v>13</v>
+      </c>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L126" t="s">
         <v>25</v>
       </c>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+      <c r="M126" t="n">
+        <v>29</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="P126" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>68.14</v>
+      </c>
       <c r="R126" t="n">
-        <v>1928.3</v>
+        <v>2179.4</v>
       </c>
       <c r="S126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="T126"/>
+        <v>13.7</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U126" t="n">
-        <v>58.2</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="127">
@@ -7339,38 +7323,54 @@
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="n">
+        <v>15</v>
+      </c>
       <c r="K127" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L127" t="s">
         <v>25</v>
       </c>
-      <c r="M127"/>
-      <c r="N127"/>
-      <c r="O127"/>
-      <c r="P127"/>
-      <c r="Q127"/>
+      <c r="M127" t="n">
+        <v>29</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O127" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="P127" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>68.69</v>
+      </c>
       <c r="R127" t="n">
-        <v>2148.5</v>
-      </c>
-      <c r="S127"/>
-      <c r="T127"/>
+        <v>1670.7</v>
+      </c>
+      <c r="S127" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U127" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="128">
@@ -7390,48 +7390,34 @@
         <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
-      <c r="J128" t="n">
-        <v>13</v>
-      </c>
+      <c r="J128"/>
       <c r="K128" t="s">
         <v>51</v>
       </c>
       <c r="L128" t="s">
         <v>25</v>
       </c>
-      <c r="M128" t="n">
-        <v>29</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O128" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="P128" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>68.14</v>
-      </c>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
       <c r="R128" t="n">
-        <v>2179.4</v>
+        <v>2190.3</v>
       </c>
       <c r="S128" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T128" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14.3</v>
+      </c>
+      <c r="T128"/>
       <c r="U128" t="n">
-        <v>55.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="129">
@@ -7451,48 +7437,32 @@
         <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129" t="n">
-        <v>15</v>
-      </c>
+      <c r="J129"/>
       <c r="K129" t="s">
         <v>51</v>
       </c>
       <c r="L129" t="s">
         <v>25</v>
       </c>
-      <c r="M129" t="n">
-        <v>29</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O129" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P129" t="n">
-        <v>48.09</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>68.69</v>
-      </c>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
       <c r="R129" t="n">
-        <v>1670.7</v>
-      </c>
-      <c r="S129" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T129" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2026.1</v>
+      </c>
+      <c r="S129"/>
+      <c r="T129"/>
       <c r="U129" t="n">
-        <v>56.1</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="130">
@@ -7506,40 +7476,54 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
-      <c r="J130"/>
+      <c r="J130" t="n">
+        <v>13</v>
+      </c>
       <c r="K130" t="s">
         <v>51</v>
       </c>
       <c r="L130" t="s">
         <v>25</v>
       </c>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="M130" t="n">
+        <v>36</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="P130" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>67.42</v>
+      </c>
       <c r="R130" t="n">
-        <v>2190.3</v>
+        <v>1755</v>
       </c>
       <c r="S130" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T130"/>
+        <v>14.8</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U130" t="n">
-        <v>57.7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131">
@@ -7553,38 +7537,56 @@
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>32</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131" t="s">
+        <v>52</v>
+      </c>
+      <c r="J131" t="n">
         <v>12</v>
       </c>
-      <c r="F131" t="n">
-        <v>4</v>
-      </c>
-      <c r="G131" t="n">
-        <v>78</v>
-      </c>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
       <c r="K131" t="s">
         <v>51</v>
       </c>
       <c r="L131" t="s">
         <v>25</v>
       </c>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
+      <c r="M131" t="n">
+        <v>32</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="P131" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>66.31</v>
+      </c>
       <c r="R131" t="n">
-        <v>2026.1</v>
-      </c>
-      <c r="S131"/>
-      <c r="T131"/>
+        <v>2144.1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U131" t="n">
-        <v>58.5</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="132">
@@ -7604,48 +7606,34 @@
         <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
-      <c r="J132" t="n">
-        <v>13</v>
-      </c>
+      <c r="J132"/>
       <c r="K132" t="s">
         <v>51</v>
       </c>
       <c r="L132" t="s">
         <v>25</v>
       </c>
-      <c r="M132" t="n">
-        <v>36</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1</v>
-      </c>
-      <c r="O132" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="P132" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>67.42</v>
-      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
       <c r="R132" t="n">
-        <v>1755</v>
+        <v>2203.5</v>
       </c>
       <c r="S132" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="T132" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T132"/>
       <c r="U132" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="133">
@@ -7665,50 +7653,32 @@
         <v>13</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H133"/>
-      <c r="I133" t="s">
-        <v>52</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12</v>
-      </c>
+      <c r="I133"/>
+      <c r="J133"/>
       <c r="K133" t="s">
         <v>51</v>
       </c>
       <c r="L133" t="s">
         <v>25</v>
       </c>
-      <c r="M133" t="n">
-        <v>32</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1</v>
-      </c>
-      <c r="O133" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="P133" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>66.31</v>
-      </c>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
       <c r="R133" t="n">
-        <v>2144.1</v>
-      </c>
-      <c r="S133" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T133" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1917.4</v>
+      </c>
+      <c r="S133"/>
+      <c r="T133"/>
       <c r="U133" t="n">
-        <v>55.2</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="134">
@@ -7722,40 +7692,54 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
-      <c r="J134"/>
+      <c r="J134" t="n">
+        <v>13</v>
+      </c>
       <c r="K134" t="s">
         <v>51</v>
       </c>
       <c r="L134" t="s">
         <v>25</v>
       </c>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="M134" t="n">
+        <v>32</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="P134" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>67.51</v>
+      </c>
       <c r="R134" t="n">
-        <v>2203.5</v>
+        <v>1833.4</v>
       </c>
       <c r="S134" t="n">
-        <v>14</v>
-      </c>
-      <c r="T134"/>
+        <v>13.1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U134" t="n">
-        <v>54.1</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="135">
@@ -7769,38 +7753,56 @@
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
+      <c r="I135" t="s">
+        <v>52</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16</v>
+      </c>
       <c r="K135" t="s">
         <v>51</v>
       </c>
       <c r="L135" t="s">
         <v>25</v>
       </c>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
+      <c r="M135" t="n">
+        <v>30</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="P135" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>66.79</v>
+      </c>
       <c r="R135" t="n">
-        <v>1917.4</v>
-      </c>
-      <c r="S135"/>
-      <c r="T135"/>
+        <v>763.4</v>
+      </c>
+      <c r="S135" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U135" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="136">
@@ -7820,48 +7822,34 @@
         <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
-      <c r="J136" t="n">
-        <v>13</v>
-      </c>
+      <c r="J136"/>
       <c r="K136" t="s">
         <v>51</v>
       </c>
       <c r="L136" t="s">
         <v>25</v>
       </c>
-      <c r="M136" t="n">
-        <v>32</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1</v>
-      </c>
-      <c r="O136" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="P136" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>67.51</v>
-      </c>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
       <c r="R136" t="n">
-        <v>1833.4</v>
+        <v>1873.9</v>
       </c>
       <c r="S136" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="T136"/>
       <c r="U136" t="n">
-        <v>56.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="137">
@@ -7881,50 +7869,32 @@
         <v>14</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H137"/>
-      <c r="I137" t="s">
-        <v>52</v>
-      </c>
-      <c r="J137" t="n">
-        <v>16</v>
-      </c>
+      <c r="I137"/>
+      <c r="J137"/>
       <c r="K137" t="s">
         <v>51</v>
       </c>
       <c r="L137" t="s">
         <v>25</v>
       </c>
-      <c r="M137" t="n">
-        <v>30</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1</v>
-      </c>
-      <c r="O137" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="P137" t="n">
-        <v>44.88</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>66.79</v>
-      </c>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
       <c r="R137" t="n">
-        <v>763.4</v>
-      </c>
-      <c r="S137" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T137" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2041.3</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137"/>
       <c r="U137" t="n">
-        <v>55.7</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="138">
@@ -7938,40 +7908,56 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E138" t="n">
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
         <v>14</v>
       </c>
-      <c r="F138" t="n">
-        <v>3</v>
-      </c>
-      <c r="G138" t="n">
-        <v>59</v>
-      </c>
       <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
+      <c r="I138" t="s">
+        <v>52</v>
+      </c>
+      <c r="J138" t="n">
+        <v>13</v>
+      </c>
       <c r="K138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L138" t="s">
         <v>25</v>
       </c>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+      <c r="M138" t="n">
+        <v>25</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="P138" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>68.67</v>
+      </c>
       <c r="R138" t="n">
-        <v>1873.9</v>
+        <v>1981.6</v>
       </c>
       <c r="S138" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T138"/>
+        <v>13</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U138" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="139">
@@ -7985,38 +7971,56 @@
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
+      <c r="I139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12</v>
+      </c>
       <c r="K139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L139" t="s">
         <v>25</v>
       </c>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
+      <c r="M139" t="n">
+        <v>24</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="P139" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>67.32</v>
+      </c>
       <c r="R139" t="n">
-        <v>2041.3</v>
-      </c>
-      <c r="S139"/>
-      <c r="T139"/>
+        <v>1635.8</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2</v>
+      </c>
       <c r="U139" t="n">
-        <v>56.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140">
@@ -8036,50 +8040,34 @@
         <v>15</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H140"/>
-      <c r="I140" t="s">
-        <v>52</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13</v>
-      </c>
+      <c r="I140"/>
+      <c r="J140"/>
       <c r="K140" t="s">
         <v>49</v>
       </c>
       <c r="L140" t="s">
         <v>25</v>
       </c>
-      <c r="M140" t="n">
-        <v>25</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1</v>
-      </c>
-      <c r="O140" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="P140" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>68.67</v>
-      </c>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
       <c r="R140" t="n">
-        <v>1981.6</v>
+        <v>1830.2</v>
       </c>
       <c r="S140" t="n">
-        <v>13</v>
-      </c>
-      <c r="T140" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.6</v>
+      </c>
+      <c r="T140"/>
       <c r="U140" t="n">
-        <v>55.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="141">
@@ -8099,50 +8087,32 @@
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H141"/>
-      <c r="I141" t="s">
-        <v>52</v>
-      </c>
-      <c r="J141" t="n">
-        <v>12</v>
-      </c>
+      <c r="I141"/>
+      <c r="J141"/>
       <c r="K141" t="s">
         <v>49</v>
       </c>
       <c r="L141" t="s">
         <v>25</v>
       </c>
-      <c r="M141" t="n">
-        <v>24</v>
-      </c>
-      <c r="N141" t="n">
-        <v>1</v>
-      </c>
-      <c r="O141" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="P141" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>67.32</v>
-      </c>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
       <c r="R141" t="n">
-        <v>1635.8</v>
-      </c>
-      <c r="S141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T141" t="n">
-        <v>2</v>
-      </c>
+        <v>1838.8</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141"/>
       <c r="U141" t="n">
-        <v>56</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="142">
@@ -8156,40 +8126,54 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
-      <c r="J142"/>
+      <c r="J142" t="n">
+        <v>4</v>
+      </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L142" t="s">
-        <v>25</v>
-      </c>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+        <v>43</v>
+      </c>
+      <c r="M142" t="n">
+        <v>28</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="P142" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>66.18</v>
+      </c>
       <c r="R142" t="n">
-        <v>1830.2</v>
+        <v>2206.4</v>
       </c>
       <c r="S142" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="T142"/>
+        <v>12</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U142" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="143">
@@ -8203,38 +8187,52 @@
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
+      <c r="I143" t="s">
+        <v>53</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5</v>
+      </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L143" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M143"/>
-      <c r="N143"/>
-      <c r="O143"/>
-      <c r="P143"/>
-      <c r="Q143"/>
+      <c r="N143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O143" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P143" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>66.08</v>
+      </c>
       <c r="R143" t="n">
-        <v>1838.8</v>
-      </c>
-      <c r="S143"/>
+        <v>819</v>
+      </c>
+      <c r="S143" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T143"/>
       <c r="U143" t="n">
-        <v>57.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="144">
@@ -8254,48 +8252,34 @@
         <v>16</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144" t="n">
-        <v>4</v>
-      </c>
+      <c r="J144"/>
       <c r="K144" t="s">
         <v>51</v>
       </c>
       <c r="L144" t="s">
         <v>43</v>
       </c>
-      <c r="M144" t="n">
-        <v>28</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1</v>
-      </c>
-      <c r="O144" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="P144" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>66.18</v>
-      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
       <c r="R144" t="n">
-        <v>2206.4</v>
+        <v>2196.1</v>
       </c>
       <c r="S144" t="n">
-        <v>12</v>
-      </c>
-      <c r="T144" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="T144"/>
       <c r="U144" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="145">
@@ -8315,18 +8299,14 @@
         <v>16</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H145"/>
-      <c r="I145" t="s">
-        <v>53</v>
-      </c>
-      <c r="J145" t="n">
-        <v>5</v>
-      </c>
+      <c r="I145"/>
+      <c r="J145"/>
       <c r="K145" t="s">
         <v>51</v>
       </c>
@@ -8334,27 +8314,17 @@
         <v>43</v>
       </c>
       <c r="M145"/>
-      <c r="N145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O145" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="P145" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>66.08</v>
-      </c>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
       <c r="R145" t="n">
-        <v>819</v>
-      </c>
-      <c r="S145" t="n">
-        <v>11.9</v>
-      </c>
+        <v>2482.4</v>
+      </c>
+      <c r="S145"/>
       <c r="T145"/>
       <c r="U145" t="n">
-        <v>55.7</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="146">
@@ -8368,40 +8338,54 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
-      <c r="J146"/>
+      <c r="J146" t="n">
+        <v>11</v>
+      </c>
       <c r="K146" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L146" t="s">
         <v>43</v>
       </c>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="M146" t="n">
+        <v>24</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="P146" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>63.57</v>
+      </c>
       <c r="R146" t="n">
-        <v>2196.1</v>
+        <v>2074.5</v>
       </c>
       <c r="S146" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T146"/>
+        <v>11.8</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U146" t="n">
-        <v>55.7</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="147">
@@ -8415,38 +8399,56 @@
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
+      <c r="I147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" t="n">
+        <v>11</v>
+      </c>
       <c r="K147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L147" t="s">
         <v>43</v>
       </c>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
+      <c r="M147" t="n">
+        <v>24</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P147" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>63.62</v>
+      </c>
       <c r="R147" t="n">
-        <v>2482.4</v>
-      </c>
-      <c r="S147"/>
-      <c r="T147"/>
+        <v>1541.2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U147" t="n">
-        <v>54.9</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="148">
@@ -8466,48 +8468,34 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
-      <c r="J148" t="n">
-        <v>11</v>
-      </c>
+      <c r="J148"/>
       <c r="K148" t="s">
         <v>49</v>
       </c>
       <c r="L148" t="s">
         <v>43</v>
       </c>
-      <c r="M148" t="n">
-        <v>24</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
-      <c r="O148" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="P148" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>63.57</v>
-      </c>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
       <c r="R148" t="n">
-        <v>2074.5</v>
+        <v>1661</v>
       </c>
       <c r="S148" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T148" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12.1</v>
+      </c>
+      <c r="T148"/>
       <c r="U148" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="149">
@@ -8527,50 +8515,32 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H149"/>
-      <c r="I149" t="s">
-        <v>52</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11</v>
-      </c>
+      <c r="I149"/>
+      <c r="J149"/>
       <c r="K149" t="s">
         <v>49</v>
       </c>
       <c r="L149" t="s">
         <v>43</v>
       </c>
-      <c r="M149" t="n">
-        <v>24</v>
-      </c>
-      <c r="N149" t="n">
-        <v>1</v>
-      </c>
-      <c r="O149" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="P149" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>63.62</v>
-      </c>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
       <c r="R149" t="n">
-        <v>1541.2</v>
-      </c>
-      <c r="S149" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="T149" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2288.3</v>
+      </c>
+      <c r="S149"/>
+      <c r="T149"/>
       <c r="U149" t="n">
-        <v>54.6</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="150">
@@ -8584,40 +8554,54 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
-      <c r="J150"/>
+      <c r="J150" t="n">
+        <v>18</v>
+      </c>
       <c r="K150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L150" t="s">
         <v>43</v>
       </c>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="M150" t="n">
+        <v>26</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="P150" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>63.58</v>
+      </c>
       <c r="R150" t="n">
-        <v>1661</v>
+        <v>2337.3</v>
       </c>
       <c r="S150" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T150"/>
+        <v>13.5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
       <c r="U150" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="151">
@@ -8631,38 +8615,54 @@
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
-      <c r="J151"/>
+      <c r="J151" t="n">
+        <v>12</v>
+      </c>
       <c r="K151" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L151" t="s">
         <v>43</v>
       </c>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
+      <c r="M151" t="n">
+        <v>28</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O151" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="P151" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>63.57</v>
+      </c>
       <c r="R151" t="n">
-        <v>2288.3</v>
-      </c>
-      <c r="S151"/>
-      <c r="T151"/>
+        <v>2054.9</v>
+      </c>
+      <c r="S151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1</v>
+      </c>
       <c r="U151" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="152">
@@ -8682,48 +8682,34 @@
         <v>18</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
-      <c r="J152" t="n">
-        <v>18</v>
-      </c>
+      <c r="J152"/>
       <c r="K152" t="s">
         <v>51</v>
       </c>
       <c r="L152" t="s">
         <v>43</v>
       </c>
-      <c r="M152" t="n">
-        <v>26</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
-      <c r="O152" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="P152" t="n">
-        <v>41.44</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>63.58</v>
-      </c>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
       <c r="R152" t="n">
-        <v>2337.3</v>
+        <v>2258</v>
       </c>
       <c r="S152" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T152" t="n">
-        <v>1</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="T152"/>
       <c r="U152" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="153">
@@ -8743,48 +8729,32 @@
         <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
-      <c r="J153" t="n">
-        <v>12</v>
-      </c>
+      <c r="J153"/>
       <c r="K153" t="s">
         <v>51</v>
       </c>
       <c r="L153" t="s">
         <v>43</v>
       </c>
-      <c r="M153" t="n">
-        <v>28</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O153" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="P153" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>63.57</v>
-      </c>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
       <c r="R153" t="n">
-        <v>2054.9</v>
-      </c>
-      <c r="S153" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T153" t="n">
-        <v>1</v>
-      </c>
+        <v>2314.1</v>
+      </c>
+      <c r="S153"/>
+      <c r="T153"/>
       <c r="U153" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="154">
@@ -8798,40 +8768,54 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154"/>
+      <c r="J154" t="n">
+        <v>18</v>
+      </c>
       <c r="K154" t="s">
         <v>51</v>
       </c>
       <c r="L154" t="s">
         <v>43</v>
       </c>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="M154" t="n">
+        <v>31</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="P154" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>66.95</v>
+      </c>
       <c r="R154" t="n">
-        <v>2258</v>
+        <v>2436.4</v>
       </c>
       <c r="S154" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="T154"/>
+        <v>14.3</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U154" t="n">
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="155">
@@ -8845,38 +8829,54 @@
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155"/>
+      <c r="J155" t="n">
+        <v>20</v>
+      </c>
       <c r="K155" t="s">
         <v>51</v>
       </c>
       <c r="L155" t="s">
         <v>43</v>
       </c>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
+      <c r="M155" t="n">
+        <v>32</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O155" t="n">
+        <v>21</v>
+      </c>
+      <c r="P155" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>65.07</v>
+      </c>
       <c r="R155" t="n">
-        <v>2314.1</v>
-      </c>
-      <c r="S155"/>
-      <c r="T155"/>
+        <v>1877.2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
       <c r="U155" t="n">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="156">
@@ -8896,48 +8896,34 @@
         <v>19</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
-      <c r="J156" t="n">
-        <v>18</v>
-      </c>
+      <c r="J156"/>
       <c r="K156" t="s">
         <v>51</v>
       </c>
       <c r="L156" t="s">
         <v>43</v>
       </c>
-      <c r="M156" t="n">
-        <v>31</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
-      <c r="O156" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P156" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>66.95</v>
-      </c>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
       <c r="R156" t="n">
-        <v>2436.4</v>
+        <v>2207.2</v>
       </c>
       <c r="S156" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T156" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T156"/>
       <c r="U156" t="n">
-        <v>56.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="157">
@@ -8957,48 +8943,32 @@
         <v>19</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
-      <c r="J157" t="n">
-        <v>20</v>
-      </c>
+      <c r="J157"/>
       <c r="K157" t="s">
         <v>51</v>
       </c>
       <c r="L157" t="s">
         <v>43</v>
       </c>
-      <c r="M157" t="n">
-        <v>32</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O157" t="n">
-        <v>21</v>
-      </c>
-      <c r="P157" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>65.07</v>
-      </c>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
       <c r="R157" t="n">
-        <v>1877.2</v>
-      </c>
-      <c r="S157" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T157" t="n">
-        <v>1</v>
-      </c>
+        <v>2107</v>
+      </c>
+      <c r="S157"/>
+      <c r="T157"/>
       <c r="U157" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="158">
@@ -9012,40 +8982,54 @@
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
-      <c r="J158"/>
+      <c r="J158" t="n">
+        <v>18</v>
+      </c>
       <c r="K158" t="s">
         <v>51</v>
       </c>
       <c r="L158" t="s">
-        <v>43</v>
-      </c>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+        <v>25</v>
+      </c>
+      <c r="M158" t="n">
+        <v>32</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="P158" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>64.74</v>
+      </c>
       <c r="R158" t="n">
-        <v>2207.2</v>
+        <v>2187.9</v>
       </c>
       <c r="S158" t="n">
-        <v>14</v>
-      </c>
-      <c r="T158"/>
+        <v>10.1</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1</v>
+      </c>
       <c r="U158" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="159">
@@ -9059,38 +9043,54 @@
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
-      <c r="J159"/>
+      <c r="J159" t="n">
+        <v>20</v>
+      </c>
       <c r="K159" t="s">
         <v>51</v>
       </c>
       <c r="L159" t="s">
-        <v>43</v>
-      </c>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
+        <v>25</v>
+      </c>
+      <c r="M159" t="n">
+        <v>32</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="P159" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>63.42</v>
+      </c>
       <c r="R159" t="n">
-        <v>2107</v>
-      </c>
-      <c r="S159"/>
-      <c r="T159"/>
+        <v>1727.8</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1</v>
+      </c>
       <c r="U159" t="n">
-        <v>55.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="160">
@@ -9110,48 +9110,34 @@
         <v>20</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
-      <c r="J160" t="n">
-        <v>18</v>
-      </c>
+      <c r="J160"/>
       <c r="K160" t="s">
         <v>51</v>
       </c>
       <c r="L160" t="s">
         <v>25</v>
       </c>
-      <c r="M160" t="n">
-        <v>32</v>
-      </c>
-      <c r="N160" t="n">
-        <v>1</v>
-      </c>
-      <c r="O160" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="P160" t="n">
-        <v>43.29</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>64.74</v>
-      </c>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
       <c r="R160" t="n">
-        <v>2187.9</v>
+        <v>1763.8</v>
       </c>
       <c r="S160" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="T160" t="n">
-        <v>1</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="T160"/>
       <c r="U160" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="161">
@@ -9171,139 +9157,31 @@
         <v>20</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
-      <c r="J161" t="n">
-        <v>20</v>
-      </c>
+      <c r="J161"/>
       <c r="K161" t="s">
         <v>51</v>
       </c>
       <c r="L161" t="s">
         <v>25</v>
       </c>
-      <c r="M161" t="n">
-        <v>32</v>
-      </c>
-      <c r="N161" t="n">
-        <v>1</v>
-      </c>
-      <c r="O161" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="P161" t="n">
-        <v>42.14</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>63.42</v>
-      </c>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
       <c r="R161" t="n">
-        <v>1727.8</v>
-      </c>
-      <c r="S161" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T161" t="n">
-        <v>1</v>
-      </c>
+        <v>2024.2</v>
+      </c>
+      <c r="S161"/>
+      <c r="T161"/>
       <c r="U161" t="n">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="s">
-        <v>47</v>
-      </c>
-      <c r="E162" t="n">
-        <v>20</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3</v>
-      </c>
-      <c r="G162" t="n">
-        <v>49</v>
-      </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162" t="s">
-        <v>51</v>
-      </c>
-      <c r="L162" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162"/>
-      <c r="P162"/>
-      <c r="Q162"/>
-      <c r="R162" t="n">
-        <v>1763.8</v>
-      </c>
-      <c r="S162" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="T162"/>
-      <c r="U162" t="n">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D163" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" t="n">
-        <v>20</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4</v>
-      </c>
-      <c r="G163" t="n">
-        <v>74</v>
-      </c>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163" t="s">
-        <v>51</v>
-      </c>
-      <c r="L163" t="s">
-        <v>25</v>
-      </c>
-      <c r="M163"/>
-      <c r="N163"/>
-      <c r="O163"/>
-      <c r="P163"/>
-      <c r="Q163"/>
-      <c r="R163" t="n">
-        <v>2024.2</v>
-      </c>
-      <c r="S163"/>
-      <c r="T163"/>
-      <c r="U163" t="n">
         <v>56.8</v>
       </c>
     </row>
